--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1755.192854863164</v>
+        <v>2195.540661383576</v>
       </c>
       <c r="AB2" t="n">
-        <v>2401.532297667545</v>
+        <v>3004.035593323096</v>
       </c>
       <c r="AC2" t="n">
-        <v>2172.333425749903</v>
+        <v>2717.334652486662</v>
       </c>
       <c r="AD2" t="n">
-        <v>1755192.854863164</v>
+        <v>2195540.661383576</v>
       </c>
       <c r="AE2" t="n">
-        <v>2401532.297667545</v>
+        <v>3004035.593323096</v>
       </c>
       <c r="AF2" t="n">
         <v>1.781808315999883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>89</v>
+        <v>88.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2172333.425749903</v>
+        <v>2717334.652486661</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1276.531012116779</v>
+        <v>1618.993605933705</v>
       </c>
       <c r="AB3" t="n">
-        <v>1746.606047351808</v>
+        <v>2215.178476595469</v>
       </c>
       <c r="AC3" t="n">
-        <v>1579.912417569534</v>
+        <v>2003.764951811715</v>
       </c>
       <c r="AD3" t="n">
-        <v>1276531.012116779</v>
+        <v>1618993.605933705</v>
       </c>
       <c r="AE3" t="n">
-        <v>1746606.047351808</v>
+        <v>2215178.476595469</v>
       </c>
       <c r="AF3" t="n">
         <v>2.30416431230522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>69</v>
+        <v>68.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1579912.417569534</v>
+        <v>2003764.951811715</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1147.203193944634</v>
+        <v>1460.401709177</v>
       </c>
       <c r="AB4" t="n">
-        <v>1569.654020988018</v>
+        <v>1998.186046872255</v>
       </c>
       <c r="AC4" t="n">
-        <v>1419.848444248176</v>
+        <v>1807.481975030496</v>
       </c>
       <c r="AD4" t="n">
-        <v>1147203.193944634</v>
+        <v>1460401.709177</v>
       </c>
       <c r="AE4" t="n">
-        <v>1569654.020988018</v>
+        <v>1998186.046872254</v>
       </c>
       <c r="AF4" t="n">
         <v>2.507513698659691e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>63</v>
+        <v>62.60416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1419848.444248176</v>
+        <v>1807481.975030496</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1084.559461026714</v>
+        <v>1387.935289569951</v>
       </c>
       <c r="AB5" t="n">
-        <v>1483.942101963271</v>
+        <v>1899.034294573088</v>
       </c>
       <c r="AC5" t="n">
-        <v>1342.316750477717</v>
+        <v>1717.793126810404</v>
       </c>
       <c r="AD5" t="n">
-        <v>1084559.461026713</v>
+        <v>1387935.289569951</v>
       </c>
       <c r="AE5" t="n">
-        <v>1483942.101963271</v>
+        <v>1899034.294573088</v>
       </c>
       <c r="AF5" t="n">
         <v>2.617264508544544e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>59.97395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1342316.750477717</v>
+        <v>1717793.126810404</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1054.764189408068</v>
+        <v>1348.284176873252</v>
       </c>
       <c r="AB6" t="n">
-        <v>1443.174896860027</v>
+        <v>1844.781892897831</v>
       </c>
       <c r="AC6" t="n">
-        <v>1305.440310212394</v>
+        <v>1668.71849820731</v>
       </c>
       <c r="AD6" t="n">
-        <v>1054764.189408068</v>
+        <v>1348284.176873252</v>
       </c>
       <c r="AE6" t="n">
-        <v>1443174.896860027</v>
+        <v>1844781.892897831</v>
       </c>
       <c r="AF6" t="n">
         <v>2.686695004418982e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>59</v>
+        <v>58.41145833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1305440.310212394</v>
+        <v>1668718.49820731</v>
       </c>
     </row>
     <row r="7">
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1032.534163399198</v>
+        <v>1326.019985445602</v>
       </c>
       <c r="AB7" t="n">
-        <v>1412.75879455516</v>
+        <v>1814.319043959716</v>
       </c>
       <c r="AC7" t="n">
-        <v>1277.927078022236</v>
+        <v>1641.162980816971</v>
       </c>
       <c r="AD7" t="n">
-        <v>1032534.163399198</v>
+        <v>1326019.985445602</v>
       </c>
       <c r="AE7" t="n">
-        <v>1412758.79455516</v>
+        <v>1814319.043959716</v>
       </c>
       <c r="AF7" t="n">
         <v>2.729305560480811e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1277927.078022236</v>
+        <v>1641162.980816972</v>
       </c>
     </row>
     <row r="8">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1012.032548819835</v>
+        <v>1295.865500241156</v>
       </c>
       <c r="AB8" t="n">
-        <v>1384.707581020274</v>
+        <v>1773.060346980996</v>
       </c>
       <c r="AC8" t="n">
-        <v>1252.553032936994</v>
+        <v>1603.841955970955</v>
       </c>
       <c r="AD8" t="n">
-        <v>1012032.548819835</v>
+        <v>1295865.500241156</v>
       </c>
       <c r="AE8" t="n">
-        <v>1384707.581020274</v>
+        <v>1773060.346980996</v>
       </c>
       <c r="AF8" t="n">
         <v>2.767516441022819e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>57</v>
+        <v>56.71875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1252553.032936994</v>
+        <v>1603841.955970955</v>
       </c>
     </row>
     <row r="9">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1005.593886464287</v>
+        <v>1289.325352659122</v>
       </c>
       <c r="AB9" t="n">
-        <v>1375.897919131678</v>
+        <v>1764.11182852831</v>
       </c>
       <c r="AC9" t="n">
-        <v>1244.584152814608</v>
+        <v>1595.747471560069</v>
       </c>
       <c r="AD9" t="n">
-        <v>1005593.886464287</v>
+        <v>1289325.352659123</v>
       </c>
       <c r="AE9" t="n">
-        <v>1375897.919131678</v>
+        <v>1764111.82852831</v>
       </c>
       <c r="AF9" t="n">
         <v>2.788068349957874e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>57</v>
+        <v>56.30208333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1244584.152814608</v>
+        <v>1595747.471560069</v>
       </c>
     </row>
     <row r="10">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>987.9354690586571</v>
+        <v>1271.734255061197</v>
       </c>
       <c r="AB10" t="n">
-        <v>1351.7368934029</v>
+        <v>1740.042912730375</v>
       </c>
       <c r="AC10" t="n">
-        <v>1222.729021471172</v>
+        <v>1573.975659304954</v>
       </c>
       <c r="AD10" t="n">
-        <v>987935.4690586571</v>
+        <v>1271734.255061198</v>
       </c>
       <c r="AE10" t="n">
-        <v>1351736.893402901</v>
+        <v>1740042.912730375</v>
       </c>
       <c r="AF10" t="n">
         <v>2.813321282051094e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>56</v>
+        <v>55.78125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1222729.021471172</v>
+        <v>1573975.659304954</v>
       </c>
     </row>
     <row r="11">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>982.9319737843624</v>
+        <v>1266.629274560418</v>
       </c>
       <c r="AB11" t="n">
-        <v>1344.890890429978</v>
+        <v>1733.058053193363</v>
       </c>
       <c r="AC11" t="n">
-        <v>1216.53639141356</v>
+        <v>1567.657424958842</v>
       </c>
       <c r="AD11" t="n">
-        <v>982931.9737843624</v>
+        <v>1266629.274560418</v>
       </c>
       <c r="AE11" t="n">
-        <v>1344890.890429978</v>
+        <v>1733058.053193363</v>
       </c>
       <c r="AF11" t="n">
         <v>2.828810550661971e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>56</v>
+        <v>55.49479166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1216536.39141356</v>
+        <v>1567657.424958842</v>
       </c>
     </row>
     <row r="12">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>977.2839528969571</v>
+        <v>1251.261063240226</v>
       </c>
       <c r="AB12" t="n">
-        <v>1337.163019078734</v>
+        <v>1712.030588467444</v>
       </c>
       <c r="AC12" t="n">
-        <v>1209.546057257943</v>
+        <v>1548.636791954132</v>
       </c>
       <c r="AD12" t="n">
-        <v>977283.9528969571</v>
+        <v>1251261.063240226</v>
       </c>
       <c r="AE12" t="n">
-        <v>1337163.019078734</v>
+        <v>1712030.588467444</v>
       </c>
       <c r="AF12" t="n">
         <v>2.845746287936898e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>56</v>
+        <v>55.15625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1209546.057257943</v>
+        <v>1548636.791954132</v>
       </c>
     </row>
     <row r="13">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>974.9987559217561</v>
+        <v>1248.975866265024</v>
       </c>
       <c r="AB13" t="n">
-        <v>1334.036311761489</v>
+        <v>1708.903881150198</v>
       </c>
       <c r="AC13" t="n">
-        <v>1206.717758498695</v>
+        <v>1545.808493194884</v>
       </c>
       <c r="AD13" t="n">
-        <v>974998.7559217562</v>
+        <v>1248975.866265025</v>
       </c>
       <c r="AE13" t="n">
-        <v>1334036.311761489</v>
+        <v>1708903.881150198</v>
       </c>
       <c r="AF13" t="n">
         <v>2.84912138148635e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>56</v>
+        <v>55.078125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1206717.758498695</v>
+        <v>1545808.493194884</v>
       </c>
     </row>
     <row r="14">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>960.239630733716</v>
+        <v>1244.004251317476</v>
       </c>
       <c r="AB14" t="n">
-        <v>1313.842225552564</v>
+        <v>1702.10149824679</v>
       </c>
       <c r="AC14" t="n">
-        <v>1188.450967534971</v>
+        <v>1539.655320168573</v>
       </c>
       <c r="AD14" t="n">
-        <v>960239.6307337161</v>
+        <v>1244004.251317476</v>
       </c>
       <c r="AE14" t="n">
-        <v>1313842.225552564</v>
+        <v>1702101.49824679</v>
       </c>
       <c r="AF14" t="n">
         <v>2.859789087883725e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1188450.967534971</v>
+        <v>1539655.320168573</v>
       </c>
     </row>
     <row r="15">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>955.0698079172006</v>
+        <v>1229.114238068174</v>
       </c>
       <c r="AB15" t="n">
-        <v>1306.768645898521</v>
+        <v>1681.728325218072</v>
       </c>
       <c r="AC15" t="n">
-        <v>1182.052480395279</v>
+        <v>1521.226534179788</v>
       </c>
       <c r="AD15" t="n">
-        <v>955069.8079172006</v>
+        <v>1229114.238068174</v>
       </c>
       <c r="AE15" t="n">
-        <v>1306768.645898521</v>
+        <v>1681728.325218072</v>
       </c>
       <c r="AF15" t="n">
         <v>2.876483747047978e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>54.55729166666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1182052.480395279</v>
+        <v>1521226.534179788</v>
       </c>
     </row>
     <row r="16">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>953.1884575580561</v>
+        <v>1227.232887709029</v>
       </c>
       <c r="AB16" t="n">
-        <v>1304.19449933782</v>
+        <v>1679.154178657371</v>
       </c>
       <c r="AC16" t="n">
-        <v>1179.724006769494</v>
+        <v>1518.898060554002</v>
       </c>
       <c r="AD16" t="n">
-        <v>953188.4575580561</v>
+        <v>1227232.887709029</v>
       </c>
       <c r="AE16" t="n">
-        <v>1304194.49933782</v>
+        <v>1679154.178657371</v>
       </c>
       <c r="AF16" t="n">
         <v>2.876242668937303e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>54.55729166666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1179724.006769494</v>
+        <v>1518898.060554002</v>
       </c>
     </row>
     <row r="17">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>950.5403905097872</v>
+        <v>1224.483335434275</v>
       </c>
       <c r="AB17" t="n">
-        <v>1300.571297177906</v>
+        <v>1675.392119933367</v>
       </c>
       <c r="AC17" t="n">
-        <v>1176.446597938525</v>
+        <v>1515.495047434534</v>
       </c>
       <c r="AD17" t="n">
-        <v>950540.3905097872</v>
+        <v>1224483.335434275</v>
       </c>
       <c r="AE17" t="n">
-        <v>1300571.297177905</v>
+        <v>1675392.119933367</v>
       </c>
       <c r="AF17" t="n">
         <v>2.88329420367455e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>55</v>
+        <v>54.42708333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1176446.597938525</v>
+        <v>1515495.047434534</v>
       </c>
     </row>
     <row r="18">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>946.7898301767176</v>
+        <v>1220.732775101205</v>
       </c>
       <c r="AB18" t="n">
-        <v>1295.439615067155</v>
+        <v>1670.260437822617</v>
       </c>
       <c r="AC18" t="n">
-        <v>1171.804676366064</v>
+        <v>1510.853125862073</v>
       </c>
       <c r="AD18" t="n">
-        <v>946789.8301767176</v>
+        <v>1220732.775101205</v>
       </c>
       <c r="AE18" t="n">
-        <v>1295439.615067155</v>
+        <v>1670260.437822617</v>
       </c>
       <c r="AF18" t="n">
         <v>2.892575710935543e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1171804.676366064</v>
+        <v>1510853.125862073</v>
       </c>
     </row>
     <row r="19">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>941.9405470566866</v>
+        <v>1206.163301548387</v>
       </c>
       <c r="AB19" t="n">
-        <v>1288.804611967056</v>
+        <v>1650.325841347842</v>
       </c>
       <c r="AC19" t="n">
-        <v>1165.802908649554</v>
+        <v>1492.821059296469</v>
       </c>
       <c r="AD19" t="n">
-        <v>941940.5470566866</v>
+        <v>1206163.301548387</v>
       </c>
       <c r="AE19" t="n">
-        <v>1288804.611967057</v>
+        <v>1650325.841347842</v>
       </c>
       <c r="AF19" t="n">
         <v>2.900229940949478e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>55</v>
+        <v>54.11458333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1165802.908649554</v>
+        <v>1492821.059296469</v>
       </c>
     </row>
     <row r="20">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>941.7510200942961</v>
+        <v>1205.973774585997</v>
       </c>
       <c r="AB20" t="n">
-        <v>1288.545292815774</v>
+        <v>1650.06652219656</v>
       </c>
       <c r="AC20" t="n">
-        <v>1165.568338554113</v>
+        <v>1492.586489201028</v>
       </c>
       <c r="AD20" t="n">
-        <v>941751.0200942961</v>
+        <v>1205973.774585997</v>
       </c>
       <c r="AE20" t="n">
-        <v>1288545.292815774</v>
+        <v>1650066.52219656</v>
       </c>
       <c r="AF20" t="n">
         <v>2.90161614008586e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>55</v>
+        <v>54.08854166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1165568.338554113</v>
+        <v>1492586.489201028</v>
       </c>
     </row>
     <row r="21">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>926.6584215768959</v>
+        <v>1200.668686309088</v>
       </c>
       <c r="AB21" t="n">
-        <v>1267.894933685813</v>
+        <v>1642.807866372116</v>
       </c>
       <c r="AC21" t="n">
-        <v>1146.888820716554</v>
+        <v>1486.020589300882</v>
       </c>
       <c r="AD21" t="n">
-        <v>926658.4215768959</v>
+        <v>1200668.686309088</v>
       </c>
       <c r="AE21" t="n">
-        <v>1267894.933685813</v>
+        <v>1642807.866372116</v>
       </c>
       <c r="AF21" t="n">
         <v>2.908848483406114e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>54</v>
+        <v>53.95833333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>1146888.820716554</v>
+        <v>1486020.589300882</v>
       </c>
     </row>
     <row r="22">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>926.4718933473065</v>
+        <v>1200.482158079499</v>
       </c>
       <c r="AB22" t="n">
-        <v>1267.639717533044</v>
+        <v>1642.552650219347</v>
       </c>
       <c r="AC22" t="n">
-        <v>1146.657962035207</v>
+        <v>1485.789730619535</v>
       </c>
       <c r="AD22" t="n">
-        <v>926471.8933473065</v>
+        <v>1200482.158079499</v>
       </c>
       <c r="AE22" t="n">
-        <v>1267639.717533044</v>
+        <v>1642552.650219347</v>
       </c>
       <c r="AF22" t="n">
         <v>2.908306057657095e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>54</v>
+        <v>53.95833333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>1146657.962035208</v>
+        <v>1485789.730619536</v>
       </c>
     </row>
     <row r="23">
@@ -8978,28 +8978,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>924.2214365483128</v>
+        <v>1198.231701280505</v>
       </c>
       <c r="AB23" t="n">
-        <v>1264.560543257514</v>
+        <v>1639.473475943817</v>
       </c>
       <c r="AC23" t="n">
-        <v>1143.872659830886</v>
+        <v>1483.004428415214</v>
       </c>
       <c r="AD23" t="n">
-        <v>924221.4365483128</v>
+        <v>1198231.701280505</v>
       </c>
       <c r="AE23" t="n">
-        <v>1264560.543257514</v>
+        <v>1639473.475943817</v>
       </c>
       <c r="AF23" t="n">
         <v>2.907341745214394e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>54</v>
+        <v>53.984375</v>
       </c>
       <c r="AH23" t="n">
-        <v>1143872.659830886</v>
+        <v>1483004.428415214</v>
       </c>
     </row>
     <row r="24">
@@ -9084,28 +9084,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>920.901638301461</v>
+        <v>1194.911903033653</v>
       </c>
       <c r="AB24" t="n">
-        <v>1260.01824883701</v>
+        <v>1634.931181523312</v>
       </c>
       <c r="AC24" t="n">
-        <v>1139.763875614724</v>
+        <v>1478.895644199052</v>
       </c>
       <c r="AD24" t="n">
-        <v>920901.638301461</v>
+        <v>1194911.903033653</v>
       </c>
       <c r="AE24" t="n">
-        <v>1260018.24883701</v>
+        <v>1634931.181523313</v>
       </c>
       <c r="AF24" t="n">
         <v>2.917225947752075e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>54</v>
+        <v>53.80208333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>1139763.875614724</v>
+        <v>1478895.644199052</v>
       </c>
     </row>
     <row r="25">
@@ -9190,28 +9190,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>918.1476189577281</v>
+        <v>1192.15788368992</v>
       </c>
       <c r="AB25" t="n">
-        <v>1256.250078072156</v>
+        <v>1631.163010758459</v>
       </c>
       <c r="AC25" t="n">
-        <v>1136.355333779007</v>
+        <v>1475.487102363335</v>
       </c>
       <c r="AD25" t="n">
-        <v>918147.6189577281</v>
+        <v>1192157.88368992</v>
       </c>
       <c r="AE25" t="n">
-        <v>1256250.078072156</v>
+        <v>1631163.010758459</v>
       </c>
       <c r="AF25" t="n">
         <v>2.918250529722444e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>54</v>
+        <v>53.77604166666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>1136355.333779007</v>
+        <v>1475487.102363335</v>
       </c>
     </row>
     <row r="26">
@@ -9296,28 +9296,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>914.5948856595498</v>
+        <v>1188.605150391742</v>
       </c>
       <c r="AB26" t="n">
-        <v>1251.389071638057</v>
+        <v>1626.30200432436</v>
       </c>
       <c r="AC26" t="n">
-        <v>1131.958254976513</v>
+        <v>1471.090023560841</v>
       </c>
       <c r="AD26" t="n">
-        <v>914594.8856595499</v>
+        <v>1188605.150391742</v>
       </c>
       <c r="AE26" t="n">
-        <v>1251389.071638057</v>
+        <v>1626302.00432436</v>
       </c>
       <c r="AF26" t="n">
         <v>2.916442443892381e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>54</v>
+        <v>53.828125</v>
       </c>
       <c r="AH26" t="n">
-        <v>1131958.254976513</v>
+        <v>1471090.023560841</v>
       </c>
     </row>
     <row r="27">
@@ -9402,28 +9402,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>913.2541615579937</v>
+        <v>1187.264426290186</v>
       </c>
       <c r="AB27" t="n">
-        <v>1249.554633773735</v>
+        <v>1624.467566460038</v>
       </c>
       <c r="AC27" t="n">
-        <v>1130.298893287312</v>
+        <v>1469.43066187164</v>
       </c>
       <c r="AD27" t="n">
-        <v>913254.1615579937</v>
+        <v>1187264.426290186</v>
       </c>
       <c r="AE27" t="n">
-        <v>1249554.633773735</v>
+        <v>1624467.566460038</v>
       </c>
       <c r="AF27" t="n">
         <v>2.924699369183003e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>54</v>
+        <v>53.671875</v>
       </c>
       <c r="AH27" t="n">
-        <v>1130298.893287312</v>
+        <v>1469430.66187164</v>
       </c>
     </row>
     <row r="28">
@@ -9508,28 +9508,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>914.7488291163662</v>
+        <v>1188.759093848558</v>
       </c>
       <c r="AB28" t="n">
-        <v>1251.599703867179</v>
+        <v>1626.512636553482</v>
       </c>
       <c r="AC28" t="n">
-        <v>1132.148784761312</v>
+        <v>1471.28055334564</v>
       </c>
       <c r="AD28" t="n">
-        <v>914748.8291163662</v>
+        <v>1188759.093848558</v>
       </c>
       <c r="AE28" t="n">
-        <v>1251599.703867179</v>
+        <v>1626512.636553482</v>
       </c>
       <c r="AF28" t="n">
         <v>2.924156943433984e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>54</v>
+        <v>53.671875</v>
       </c>
       <c r="AH28" t="n">
-        <v>1132148.784761312</v>
+        <v>1471280.55334564</v>
       </c>
     </row>
   </sheetData>
@@ -9805,28 +9805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1449.076277659941</v>
+        <v>1845.876296558031</v>
       </c>
       <c r="AB2" t="n">
-        <v>1982.690091827837</v>
+        <v>2525.609383265556</v>
       </c>
       <c r="AC2" t="n">
-        <v>1793.464932186809</v>
+        <v>2284.568768441723</v>
       </c>
       <c r="AD2" t="n">
-        <v>1449076.277659941</v>
+        <v>1845876.296558031</v>
       </c>
       <c r="AE2" t="n">
-        <v>1982690.091827838</v>
+        <v>2525609.383265556</v>
       </c>
       <c r="AF2" t="n">
         <v>2.176150695163482e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1793464.932186809</v>
+        <v>2284568.768441723</v>
       </c>
     </row>
     <row r="3">
@@ -9911,28 +9911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1126.724545527701</v>
+        <v>1446.047016836003</v>
       </c>
       <c r="AB3" t="n">
-        <v>1541.634230769764</v>
+        <v>1978.54532352697</v>
       </c>
       <c r="AC3" t="n">
-        <v>1394.502823482329</v>
+        <v>1789.715734755357</v>
       </c>
       <c r="AD3" t="n">
-        <v>1126724.545527701</v>
+        <v>1446047.016836002</v>
       </c>
       <c r="AE3" t="n">
-        <v>1541634.230769764</v>
+        <v>1978545.32352697</v>
       </c>
       <c r="AF3" t="n">
         <v>2.678065387756872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>65</v>
+        <v>64.11458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1394502.823482329</v>
+        <v>1789715.734755357</v>
       </c>
     </row>
     <row r="4">
@@ -10017,28 +10017,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1027.540605386199</v>
+        <v>1327.569298201989</v>
       </c>
       <c r="AB4" t="n">
-        <v>1405.926388181543</v>
+        <v>1816.438882023861</v>
       </c>
       <c r="AC4" t="n">
-        <v>1271.746746923575</v>
+        <v>1643.080504511485</v>
       </c>
       <c r="AD4" t="n">
-        <v>1027540.605386199</v>
+        <v>1327569.298201989</v>
       </c>
       <c r="AE4" t="n">
-        <v>1405926.388181543</v>
+        <v>1816438.882023861</v>
       </c>
       <c r="AF4" t="n">
         <v>2.868978938546238e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.86979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1271746.746923575</v>
+        <v>1643080.504511485</v>
       </c>
     </row>
     <row r="5">
@@ -10123,28 +10123,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>984.3115349599476</v>
+        <v>1274.65967862563</v>
       </c>
       <c r="AB5" t="n">
-        <v>1346.778466892358</v>
+        <v>1744.04560631181</v>
       </c>
       <c r="AC5" t="n">
-        <v>1218.2438202276</v>
+        <v>1577.596341428792</v>
       </c>
       <c r="AD5" t="n">
-        <v>984311.5349599476</v>
+        <v>1274659.67862563</v>
       </c>
       <c r="AE5" t="n">
-        <v>1346778.466892357</v>
+        <v>1744045.60631181</v>
       </c>
       <c r="AF5" t="n">
         <v>2.968359498490823e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.86458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1218243.8202276</v>
+        <v>1577596.341428792</v>
       </c>
     </row>
     <row r="6">
@@ -10229,28 +10229,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>957.6120476385895</v>
+        <v>1238.313807572944</v>
       </c>
       <c r="AB6" t="n">
-        <v>1310.247050441027</v>
+        <v>1694.315582070862</v>
       </c>
       <c r="AC6" t="n">
-        <v>1185.198910890219</v>
+        <v>1532.612480904873</v>
       </c>
       <c r="AD6" t="n">
-        <v>957612.0476385895</v>
+        <v>1238313.807572944</v>
       </c>
       <c r="AE6" t="n">
-        <v>1310247.050441027</v>
+        <v>1694315.582070862</v>
       </c>
       <c r="AF6" t="n">
         <v>3.037668701212627e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.53645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1185198.910890219</v>
+        <v>1532612.480904873</v>
       </c>
     </row>
     <row r="7">
@@ -10335,28 +10335,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>937.20620397913</v>
+        <v>1217.873798494704</v>
       </c>
       <c r="AB7" t="n">
-        <v>1282.326874903868</v>
+        <v>1666.348659900455</v>
       </c>
       <c r="AC7" t="n">
-        <v>1159.943397720114</v>
+        <v>1507.314682534588</v>
       </c>
       <c r="AD7" t="n">
-        <v>937206.20397913</v>
+        <v>1217873.798494704</v>
       </c>
       <c r="AE7" t="n">
-        <v>1282326.874903868</v>
+        <v>1666348.659900455</v>
       </c>
       <c r="AF7" t="n">
         <v>3.080995196158607e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.72916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1159943.397720114</v>
+        <v>1507314.682534588</v>
       </c>
     </row>
     <row r="8">
@@ -10441,28 +10441,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>929.02814547233</v>
+        <v>1199.982036448872</v>
       </c>
       <c r="AB8" t="n">
-        <v>1271.137294464386</v>
+        <v>1641.868361740515</v>
       </c>
       <c r="AC8" t="n">
-        <v>1149.821735133102</v>
+        <v>1485.170749672718</v>
       </c>
       <c r="AD8" t="n">
-        <v>929028.14547233</v>
+        <v>1199982.036448872</v>
       </c>
       <c r="AE8" t="n">
-        <v>1271137.294464386</v>
+        <v>1641868.361740515</v>
       </c>
       <c r="AF8" t="n">
         <v>3.111660067010785e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>56</v>
+        <v>55.18229166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1149821.735133102</v>
+        <v>1485170.749672718</v>
       </c>
     </row>
     <row r="9">
@@ -10547,28 +10547,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>912.813012797083</v>
+        <v>1193.446441893876</v>
       </c>
       <c r="AB9" t="n">
-        <v>1248.951034576947</v>
+        <v>1632.926072940287</v>
       </c>
       <c r="AC9" t="n">
-        <v>1129.752900750709</v>
+        <v>1477.081900365002</v>
       </c>
       <c r="AD9" t="n">
-        <v>912813.012797083</v>
+        <v>1193446.441893876</v>
       </c>
       <c r="AE9" t="n">
-        <v>1248951.034576947</v>
+        <v>1632926.072940287</v>
       </c>
       <c r="AF9" t="n">
         <v>3.133883855133762e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.79166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1129752.900750709</v>
+        <v>1477081.900365002</v>
       </c>
     </row>
     <row r="10">
@@ -10653,28 +10653,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>907.2082186706967</v>
+        <v>1178.127944228458</v>
       </c>
       <c r="AB10" t="n">
-        <v>1241.28230798716</v>
+        <v>1611.966628630041</v>
       </c>
       <c r="AC10" t="n">
-        <v>1122.816066663526</v>
+        <v>1458.122796002962</v>
       </c>
       <c r="AD10" t="n">
-        <v>907208.2186706967</v>
+        <v>1178127.944228458</v>
       </c>
       <c r="AE10" t="n">
-        <v>1241282.30798716</v>
+        <v>1611966.628630041</v>
       </c>
       <c r="AF10" t="n">
         <v>3.15234872360389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>54.47916666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1122816.066663526</v>
+        <v>1458122.796002962</v>
       </c>
     </row>
     <row r="11">
@@ -10759,28 +10759,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>902.5728516035388</v>
+        <v>1173.4925771613</v>
       </c>
       <c r="AB11" t="n">
-        <v>1234.939994267912</v>
+        <v>1605.624314910793</v>
       </c>
       <c r="AC11" t="n">
-        <v>1117.07905446415</v>
+        <v>1452.385783803585</v>
       </c>
       <c r="AD11" t="n">
-        <v>902572.8516035387</v>
+        <v>1173492.5771613</v>
       </c>
       <c r="AE11" t="n">
-        <v>1234939.994267912</v>
+        <v>1605624.314910793</v>
       </c>
       <c r="AF11" t="n">
         <v>3.166065483038843e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.24479166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1117079.05446415</v>
+        <v>1452385.783803585</v>
       </c>
     </row>
     <row r="12">
@@ -10865,28 +10865,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>898.1705875468517</v>
+        <v>1159.478094792066</v>
       </c>
       <c r="AB12" t="n">
-        <v>1228.91662237137</v>
+        <v>1586.449081857881</v>
       </c>
       <c r="AC12" t="n">
-        <v>1111.630544727558</v>
+        <v>1435.040608080635</v>
       </c>
       <c r="AD12" t="n">
-        <v>898170.5875468517</v>
+        <v>1159478.094792066</v>
       </c>
       <c r="AE12" t="n">
-        <v>1228916.62237137</v>
+        <v>1586449.081857881</v>
       </c>
       <c r="AF12" t="n">
         <v>3.173517376385716e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.11458333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1111630.544727558</v>
+        <v>1435040.608080635</v>
       </c>
     </row>
     <row r="13">
@@ -10971,28 +10971,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>883.1831693359006</v>
+        <v>1154.170214701366</v>
       </c>
       <c r="AB13" t="n">
-        <v>1208.41017557692</v>
+        <v>1579.186606150642</v>
       </c>
       <c r="AC13" t="n">
-        <v>1093.081204434191</v>
+        <v>1428.471252861946</v>
       </c>
       <c r="AD13" t="n">
-        <v>883183.1693359006</v>
+        <v>1154170.214701366</v>
       </c>
       <c r="AE13" t="n">
-        <v>1208410.17557692</v>
+        <v>1579186.606150642</v>
       </c>
       <c r="AF13" t="n">
         <v>3.189212514585326e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>54</v>
+        <v>53.85416666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1093081.204434191</v>
+        <v>1428471.252861946</v>
       </c>
     </row>
     <row r="14">
@@ -11077,28 +11077,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>878.3613724801058</v>
+        <v>1149.348417845571</v>
       </c>
       <c r="AB14" t="n">
-        <v>1201.812780396157</v>
+        <v>1572.58921096988</v>
       </c>
       <c r="AC14" t="n">
-        <v>1087.113455389979</v>
+        <v>1422.503503817734</v>
       </c>
       <c r="AD14" t="n">
-        <v>878361.3724801058</v>
+        <v>1149348.417845571</v>
       </c>
       <c r="AE14" t="n">
-        <v>1201812.780396157</v>
+        <v>1572589.21096988</v>
       </c>
       <c r="AF14" t="n">
         <v>3.198906570532143e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>54</v>
+        <v>53.69791666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1087113.455389979</v>
+        <v>1422503.503817734</v>
       </c>
     </row>
     <row r="15">
@@ -11183,28 +11183,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>874.568929738411</v>
+        <v>1145.555975103877</v>
       </c>
       <c r="AB15" t="n">
-        <v>1196.623792926205</v>
+        <v>1567.400223499928</v>
       </c>
       <c r="AC15" t="n">
-        <v>1082.419697601369</v>
+        <v>1417.809746029124</v>
       </c>
       <c r="AD15" t="n">
-        <v>874568.9297384111</v>
+        <v>1145555.975103877</v>
       </c>
       <c r="AE15" t="n">
-        <v>1196623.792926205</v>
+        <v>1567400.223499927</v>
       </c>
       <c r="AF15" t="n">
         <v>3.205830896208442e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>54</v>
+        <v>53.56770833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1082419.697601369</v>
+        <v>1417809.746029124</v>
       </c>
     </row>
     <row r="16">
@@ -11289,28 +11289,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>871.2873381998859</v>
+        <v>1142.274383565351</v>
       </c>
       <c r="AB16" t="n">
-        <v>1192.133774609594</v>
+        <v>1562.910205183316</v>
       </c>
       <c r="AC16" t="n">
-        <v>1078.358200331115</v>
+        <v>1413.74824875887</v>
       </c>
       <c r="AD16" t="n">
-        <v>871287.3381998859</v>
+        <v>1142274.383565351</v>
       </c>
       <c r="AE16" t="n">
-        <v>1192133.774609594</v>
+        <v>1562910.205183316</v>
       </c>
       <c r="AF16" t="n">
         <v>3.20616062600255e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>54</v>
+        <v>53.56770833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1078358.200331115</v>
+        <v>1413748.24875887</v>
       </c>
     </row>
     <row r="17">
@@ -11395,28 +11395,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>868.8786077561164</v>
+        <v>1130.15194958255</v>
       </c>
       <c r="AB17" t="n">
-        <v>1188.838043350741</v>
+        <v>1546.323756204005</v>
       </c>
       <c r="AC17" t="n">
-        <v>1075.377009038019</v>
+        <v>1398.744787190916</v>
       </c>
       <c r="AD17" t="n">
-        <v>868878.6077561163</v>
+        <v>1130151.94958255</v>
       </c>
       <c r="AE17" t="n">
-        <v>1188838.043350741</v>
+        <v>1546323.756204005</v>
       </c>
       <c r="AF17" t="n">
         <v>3.214337924896465e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>54</v>
+        <v>53.4375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1075377.009038019</v>
+        <v>1398744.787190916</v>
       </c>
     </row>
     <row r="18">
@@ -11501,28 +11501,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>863.5573345095338</v>
+        <v>1124.830676335968</v>
       </c>
       <c r="AB18" t="n">
-        <v>1181.55724253676</v>
+        <v>1539.042955390023</v>
       </c>
       <c r="AC18" t="n">
-        <v>1068.791077635056</v>
+        <v>1392.158855787953</v>
       </c>
       <c r="AD18" t="n">
-        <v>863557.3345095338</v>
+        <v>1124830.676335968</v>
       </c>
       <c r="AE18" t="n">
-        <v>1181557.242536759</v>
+        <v>1539042.955390023</v>
       </c>
       <c r="AF18" t="n">
         <v>3.221657926325694e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>54</v>
+        <v>53.30729166666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1068791.077635056</v>
+        <v>1392158.855787953</v>
       </c>
     </row>
     <row r="19">
@@ -11607,28 +11607,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>862.1587588814675</v>
+        <v>1123.432100707901</v>
       </c>
       <c r="AB19" t="n">
-        <v>1179.643649661637</v>
+        <v>1537.129362514901</v>
       </c>
       <c r="AC19" t="n">
-        <v>1067.060115378191</v>
+        <v>1390.427893531088</v>
       </c>
       <c r="AD19" t="n">
-        <v>862158.7588814675</v>
+        <v>1123432.100707901</v>
       </c>
       <c r="AE19" t="n">
-        <v>1179643.649661637</v>
+        <v>1537129.362514901</v>
       </c>
       <c r="AF19" t="n">
         <v>3.221394142490407e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>54</v>
+        <v>53.30729166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1067060.115378191</v>
+        <v>1390427.893531088</v>
       </c>
     </row>
     <row r="20">
@@ -11713,28 +11713,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>863.0177779683473</v>
+        <v>1124.291119794781</v>
       </c>
       <c r="AB20" t="n">
-        <v>1180.818997473554</v>
+        <v>1538.304710326817</v>
       </c>
       <c r="AC20" t="n">
-        <v>1068.123289644549</v>
+        <v>1391.491067797446</v>
       </c>
       <c r="AD20" t="n">
-        <v>863017.7779683473</v>
+        <v>1124291.119794781</v>
       </c>
       <c r="AE20" t="n">
-        <v>1180818.997473554</v>
+        <v>1538304.710326817</v>
       </c>
       <c r="AF20" t="n">
         <v>3.219811439478682e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>54</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>1068123.289644549</v>
+        <v>1391491.067797446</v>
       </c>
     </row>
   </sheetData>
@@ -12010,28 +12010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>918.9692459815675</v>
+        <v>1218.20901100755</v>
       </c>
       <c r="AB2" t="n">
-        <v>1257.374264413799</v>
+        <v>1666.807312449064</v>
       </c>
       <c r="AC2" t="n">
-        <v>1137.372229354009</v>
+        <v>1507.729561927681</v>
       </c>
       <c r="AD2" t="n">
-        <v>918969.2459815675</v>
+        <v>1218209.01100755</v>
       </c>
       <c r="AE2" t="n">
-        <v>1257374.264413799</v>
+        <v>1666807.312449064</v>
       </c>
       <c r="AF2" t="n">
         <v>3.862261129542374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.05729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1137372.229354009</v>
+        <v>1507729.561927681</v>
       </c>
     </row>
     <row r="3">
@@ -12116,28 +12116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>807.0821296039774</v>
+        <v>1068.968298508615</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.285375674779</v>
+        <v>1462.609585572464</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.893929294636</v>
+        <v>1323.020179510874</v>
       </c>
       <c r="AD3" t="n">
-        <v>807082.1296039773</v>
+        <v>1068968.298508615</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104285.375674779</v>
+        <v>1462609.585572464</v>
       </c>
       <c r="AF3" t="n">
         <v>4.277665907369466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.04166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>998893.929294636</v>
+        <v>1323020.179510874</v>
       </c>
     </row>
     <row r="4">
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>767.7462274759267</v>
+        <v>1029.564065543003</v>
       </c>
       <c r="AB4" t="n">
-        <v>1050.464259005655</v>
+        <v>1408.694975636844</v>
       </c>
       <c r="AC4" t="n">
-        <v>950.2094244620017</v>
+        <v>1274.251104277879</v>
       </c>
       <c r="AD4" t="n">
-        <v>767746.2274759267</v>
+        <v>1029564.065543003</v>
       </c>
       <c r="AE4" t="n">
-        <v>1050464.259005655</v>
+        <v>1408694.975636845</v>
       </c>
       <c r="AF4" t="n">
         <v>4.424387648086591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>950209.4244620018</v>
+        <v>1274251.104277879</v>
       </c>
     </row>
     <row r="5">
@@ -12328,28 +12328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>745.4453572784457</v>
+        <v>997.9418790245767</v>
       </c>
       <c r="AB5" t="n">
-        <v>1019.951224556504</v>
+        <v>1365.428104969923</v>
       </c>
       <c r="AC5" t="n">
-        <v>922.6085111953654</v>
+        <v>1235.113563021975</v>
       </c>
       <c r="AD5" t="n">
-        <v>745445.3572784457</v>
+        <v>997941.8790245766</v>
       </c>
       <c r="AE5" t="n">
-        <v>1019951.224556505</v>
+        <v>1365428.104969923</v>
       </c>
       <c r="AF5" t="n">
         <v>4.50235083151658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.22916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>922608.5111953653</v>
+        <v>1235113.563021975</v>
       </c>
     </row>
     <row r="6">
@@ -12434,28 +12434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>726.3290321885761</v>
+        <v>978.8928737424113</v>
       </c>
       <c r="AB6" t="n">
-        <v>993.7954252158027</v>
+        <v>1339.364415560063</v>
       </c>
       <c r="AC6" t="n">
-        <v>898.9489846338453</v>
+        <v>1211.537355548774</v>
       </c>
       <c r="AD6" t="n">
-        <v>726329.0321885761</v>
+        <v>978892.8737424114</v>
       </c>
       <c r="AE6" t="n">
-        <v>993795.4252158026</v>
+        <v>1339364.415560063</v>
       </c>
       <c r="AF6" t="n">
         <v>4.541470492623719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.78645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>898948.9846338453</v>
+        <v>1211537.355548774</v>
       </c>
     </row>
     <row r="7">
@@ -12540,28 +12540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>726.6686490867647</v>
+        <v>979.2324906406002</v>
       </c>
       <c r="AB7" t="n">
-        <v>994.2601040387447</v>
+        <v>1339.829094383005</v>
       </c>
       <c r="AC7" t="n">
-        <v>899.3693151621065</v>
+        <v>1211.957686077035</v>
       </c>
       <c r="AD7" t="n">
-        <v>726668.6490867648</v>
+        <v>979232.4906406002</v>
       </c>
       <c r="AE7" t="n">
-        <v>994260.1040387447</v>
+        <v>1339829.094383005</v>
       </c>
       <c r="AF7" t="n">
         <v>4.544415972989432e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>899369.3151621065</v>
+        <v>1211957.686077035</v>
       </c>
     </row>
   </sheetData>
@@ -12837,28 +12837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1083.128134586234</v>
+        <v>1405.43403372803</v>
       </c>
       <c r="AB2" t="n">
-        <v>1481.983697981741</v>
+        <v>1922.976848320281</v>
       </c>
       <c r="AC2" t="n">
-        <v>1340.545253823546</v>
+        <v>1739.45063683155</v>
       </c>
       <c r="AD2" t="n">
-        <v>1083128.134586234</v>
+        <v>1405434.033728031</v>
       </c>
       <c r="AE2" t="n">
-        <v>1481983.697981741</v>
+        <v>1922976.848320281</v>
       </c>
       <c r="AF2" t="n">
         <v>3.090274478139677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.16145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1340545.253823546</v>
+        <v>1739450.63683155</v>
       </c>
     </row>
     <row r="3">
@@ -12943,28 +12943,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>909.7451539594082</v>
+        <v>1194.188092394994</v>
       </c>
       <c r="AB3" t="n">
-        <v>1244.753454770861</v>
+        <v>1633.940831875227</v>
       </c>
       <c r="AC3" t="n">
-        <v>1125.955932069975</v>
+        <v>1477.999812131415</v>
       </c>
       <c r="AD3" t="n">
-        <v>909745.1539594082</v>
+        <v>1194188.092394994</v>
       </c>
       <c r="AE3" t="n">
-        <v>1244753.454770861</v>
+        <v>1633940.831875227</v>
       </c>
       <c r="AF3" t="n">
         <v>3.539132701065919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.64583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1125955.932069975</v>
+        <v>1477999.812131415</v>
       </c>
     </row>
     <row r="4">
@@ -13049,28 +13049,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>852.424139065089</v>
+        <v>1127.350341953415</v>
       </c>
       <c r="AB4" t="n">
-        <v>1166.324313367752</v>
+        <v>1542.490473047617</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.011957846388</v>
+        <v>1395.277347198927</v>
       </c>
       <c r="AD4" t="n">
-        <v>852424.1390650889</v>
+        <v>1127350.341953415</v>
       </c>
       <c r="AE4" t="n">
-        <v>1166324.313367752</v>
+        <v>1542490.473047617</v>
       </c>
       <c r="AF4" t="n">
         <v>3.709556938433403e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.96354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055011.957846388</v>
+        <v>1395277.347198927</v>
       </c>
     </row>
     <row r="5">
@@ -13155,28 +13155,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>827.9202857879873</v>
+        <v>1093.398083966615</v>
       </c>
       <c r="AB5" t="n">
-        <v>1132.79706028031</v>
+        <v>1496.035495802169</v>
       </c>
       <c r="AC5" t="n">
-        <v>1024.684498737816</v>
+        <v>1353.255967781815</v>
       </c>
       <c r="AD5" t="n">
-        <v>827920.2857879873</v>
+        <v>1093398.083966615</v>
       </c>
       <c r="AE5" t="n">
-        <v>1132797.06028031</v>
+        <v>1496035.495802169</v>
       </c>
       <c r="AF5" t="n">
         <v>3.793653089239154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.71354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1024684.498737816</v>
+        <v>1353255.967781815</v>
       </c>
     </row>
     <row r="6">
@@ -13261,28 +13261,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>807.0554938243181</v>
+        <v>1072.499126584165</v>
       </c>
       <c r="AB6" t="n">
-        <v>1104.248931425961</v>
+        <v>1467.440620314572</v>
       </c>
       <c r="AC6" t="n">
-        <v>998.8609632337759</v>
+        <v>1327.390147077595</v>
       </c>
       <c r="AD6" t="n">
-        <v>807055.4938243181</v>
+        <v>1072499.126584165</v>
       </c>
       <c r="AE6" t="n">
-        <v>1104248.931425961</v>
+        <v>1467440.620314572</v>
       </c>
       <c r="AF6" t="n">
         <v>3.848415227251998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.93229166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>998860.9632337759</v>
+        <v>1327390.147077595</v>
       </c>
     </row>
     <row r="7">
@@ -13367,28 +13367,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>799.7197512339579</v>
+        <v>1065.163383993805</v>
       </c>
       <c r="AB7" t="n">
-        <v>1094.211844783708</v>
+        <v>1457.40353367232</v>
       </c>
       <c r="AC7" t="n">
-        <v>989.7818020535199</v>
+        <v>1318.310985897339</v>
       </c>
       <c r="AD7" t="n">
-        <v>799719.7512339579</v>
+        <v>1065163.383993805</v>
       </c>
       <c r="AE7" t="n">
-        <v>1094211.844783708</v>
+        <v>1457403.533672319</v>
       </c>
       <c r="AF7" t="n">
         <v>3.877111544114625e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.54166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>989781.8020535199</v>
+        <v>1318310.985897339</v>
       </c>
     </row>
     <row r="8">
@@ -13473,28 +13473,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>792.6111930355115</v>
+        <v>1048.539101277956</v>
       </c>
       <c r="AB8" t="n">
-        <v>1084.485601849139</v>
+        <v>1434.657456648903</v>
       </c>
       <c r="AC8" t="n">
-        <v>980.9838180937587</v>
+        <v>1297.735762540718</v>
       </c>
       <c r="AD8" t="n">
-        <v>792611.1930355115</v>
+        <v>1048539.101277956</v>
       </c>
       <c r="AE8" t="n">
-        <v>1084485.601849139</v>
+        <v>1434657.456648903</v>
       </c>
       <c r="AF8" t="n">
         <v>3.900786005526291e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>980983.8180937587</v>
+        <v>1297735.762540718</v>
       </c>
     </row>
     <row r="9">
@@ -13579,28 +13579,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>775.5359510387453</v>
+        <v>1040.945418379812</v>
       </c>
       <c r="AB9" t="n">
-        <v>1061.122502442653</v>
+        <v>1424.267444698016</v>
       </c>
       <c r="AC9" t="n">
-        <v>959.8504601043111</v>
+        <v>1288.33735874795</v>
       </c>
       <c r="AD9" t="n">
-        <v>775535.9510387453</v>
+        <v>1040945.418379812</v>
       </c>
       <c r="AE9" t="n">
-        <v>1061122.502442653</v>
+        <v>1424267.444698016</v>
       </c>
       <c r="AF9" t="n">
         <v>3.918402355600292e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.96875</v>
       </c>
       <c r="AH9" t="n">
-        <v>959850.4601043111</v>
+        <v>1288337.35874795</v>
       </c>
     </row>
     <row r="10">
@@ -13685,28 +13685,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>771.6495451969818</v>
+        <v>1027.644773247131</v>
       </c>
       <c r="AB10" t="n">
-        <v>1055.804950513827</v>
+        <v>1406.068915244432</v>
       </c>
       <c r="AC10" t="n">
-        <v>955.0404078683413</v>
+        <v>1271.875671403619</v>
       </c>
       <c r="AD10" t="n">
-        <v>771649.5451969818</v>
+        <v>1027644.773247131</v>
       </c>
       <c r="AE10" t="n">
-        <v>1055804.950513827</v>
+        <v>1406068.915244432</v>
       </c>
       <c r="AF10" t="n">
         <v>3.932511378057749e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.78645833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>955040.4078683413</v>
+        <v>1271875.671403619</v>
       </c>
     </row>
     <row r="11">
@@ -13791,28 +13791,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>773.0220904772402</v>
+        <v>1029.01731852739</v>
       </c>
       <c r="AB11" t="n">
-        <v>1057.682927518701</v>
+        <v>1407.946892249306</v>
       </c>
       <c r="AC11" t="n">
-        <v>956.7391533836275</v>
+        <v>1273.574416918906</v>
       </c>
       <c r="AD11" t="n">
-        <v>773022.0904772403</v>
+        <v>1029017.318527389</v>
       </c>
       <c r="AE11" t="n">
-        <v>1057682.927518701</v>
+        <v>1407946.892249306</v>
       </c>
       <c r="AF11" t="n">
         <v>3.932112818101324e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.78645833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>956739.1533836274</v>
+        <v>1273574.416918906</v>
       </c>
     </row>
   </sheetData>
@@ -14088,28 +14088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.4984532324211</v>
+        <v>1089.184495902571</v>
       </c>
       <c r="AB2" t="n">
-        <v>1098.013787445686</v>
+        <v>1490.270278722558</v>
       </c>
       <c r="AC2" t="n">
-        <v>993.2208926438985</v>
+        <v>1348.040974928749</v>
       </c>
       <c r="AD2" t="n">
-        <v>802498.4532324211</v>
+        <v>1089184.495902571</v>
       </c>
       <c r="AE2" t="n">
-        <v>1098013.787445686</v>
+        <v>1490270.278722558</v>
       </c>
       <c r="AF2" t="n">
         <v>4.664592699807807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>993220.8926438985</v>
+        <v>1348040.974928749</v>
       </c>
     </row>
     <row r="3">
@@ -14194,28 +14194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>725.8363310756511</v>
+        <v>984.735489783346</v>
       </c>
       <c r="AB3" t="n">
-        <v>993.1212898166599</v>
+        <v>1347.358540585298</v>
       </c>
       <c r="AC3" t="n">
-        <v>898.3391877710418</v>
+        <v>1218.768532501425</v>
       </c>
       <c r="AD3" t="n">
-        <v>725836.3310756511</v>
+        <v>984735.489783346</v>
       </c>
       <c r="AE3" t="n">
-        <v>993121.2898166599</v>
+        <v>1347358.540585298</v>
       </c>
       <c r="AF3" t="n">
         <v>5.050453458792925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.34895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>898339.1877710418</v>
+        <v>1218768.532501425</v>
       </c>
     </row>
     <row r="4">
@@ -14300,28 +14300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>699.7045958364395</v>
+        <v>949.3866767717379</v>
       </c>
       <c r="AB4" t="n">
-        <v>957.3666968115758</v>
+        <v>1298.992735143248</v>
       </c>
       <c r="AC4" t="n">
-        <v>865.9969629404764</v>
+        <v>1175.01869164893</v>
       </c>
       <c r="AD4" t="n">
-        <v>699704.5958364395</v>
+        <v>949386.676771738</v>
       </c>
       <c r="AE4" t="n">
-        <v>957366.6968115758</v>
+        <v>1298992.735143248</v>
       </c>
       <c r="AF4" t="n">
         <v>5.173696963507025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.07291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>865996.9629404764</v>
+        <v>1175018.69164893</v>
       </c>
     </row>
     <row r="5">
@@ -14406,28 +14406,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>690.2983453227966</v>
+        <v>949.2306584194151</v>
       </c>
       <c r="AB5" t="n">
-        <v>944.4966498843243</v>
+        <v>1298.779263950556</v>
       </c>
       <c r="AC5" t="n">
-        <v>854.3552152287376</v>
+        <v>1174.82559384726</v>
       </c>
       <c r="AD5" t="n">
-        <v>690298.3453227966</v>
+        <v>949230.6584194151</v>
       </c>
       <c r="AE5" t="n">
-        <v>944496.6498843243</v>
+        <v>1298779.263950556</v>
       </c>
       <c r="AF5" t="n">
         <v>5.181076814088707e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.99479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>854355.2152287376</v>
+        <v>1174825.59384726</v>
       </c>
     </row>
   </sheetData>
@@ -14703,28 +14703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1527.942630419744</v>
+        <v>1925.907221845156</v>
       </c>
       <c r="AB2" t="n">
-        <v>2090.598515011724</v>
+        <v>2635.111225958639</v>
       </c>
       <c r="AC2" t="n">
-        <v>1891.074726912449</v>
+        <v>2383.61990895498</v>
       </c>
       <c r="AD2" t="n">
-        <v>1527942.630419744</v>
+        <v>1925907.221845156</v>
       </c>
       <c r="AE2" t="n">
-        <v>2090598.515011725</v>
+        <v>2635111.225958639</v>
       </c>
       <c r="AF2" t="n">
         <v>2.064826258905856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1891074.726912449</v>
+        <v>2383619.90895498</v>
       </c>
     </row>
     <row r="3">
@@ -14809,28 +14809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1163.511113661172</v>
+        <v>1483.804275495971</v>
       </c>
       <c r="AB3" t="n">
-        <v>1591.967236198827</v>
+        <v>2030.206470558229</v>
       </c>
       <c r="AC3" t="n">
-        <v>1440.032117516059</v>
+        <v>1836.446414420828</v>
       </c>
       <c r="AD3" t="n">
-        <v>1163511.113661172</v>
+        <v>1483804.275495971</v>
       </c>
       <c r="AE3" t="n">
-        <v>1591967.236198827</v>
+        <v>2030206.470558229</v>
       </c>
       <c r="AF3" t="n">
         <v>2.575144535821752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>66</v>
+        <v>65.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1440032.117516059</v>
+        <v>1836446.414420828</v>
       </c>
     </row>
     <row r="4">
@@ -14915,28 +14915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1060.160256852946</v>
+        <v>1361.102881097795</v>
       </c>
       <c r="AB4" t="n">
-        <v>1450.558034395804</v>
+        <v>1862.321009539169</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312.118811464055</v>
+        <v>1684.583706172703</v>
       </c>
       <c r="AD4" t="n">
-        <v>1060160.256852946</v>
+        <v>1361102.881097795</v>
       </c>
       <c r="AE4" t="n">
-        <v>1450558.034395804</v>
+        <v>1862321.009539169</v>
       </c>
       <c r="AF4" t="n">
         <v>2.767688329583714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>61</v>
+        <v>60.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1312118.811464055</v>
+        <v>1684583.706172703</v>
       </c>
     </row>
     <row r="5">
@@ -15021,28 +15021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1012.17325754483</v>
+        <v>1303.305467864366</v>
       </c>
       <c r="AB5" t="n">
-        <v>1384.900104905442</v>
+        <v>1783.240038911279</v>
       </c>
       <c r="AC5" t="n">
-        <v>1252.727182612771</v>
+        <v>1613.050112390699</v>
       </c>
       <c r="AD5" t="n">
-        <v>1012173.25754483</v>
+        <v>1303305.467864366</v>
       </c>
       <c r="AE5" t="n">
-        <v>1384900.104905442</v>
+        <v>1783240.038911279</v>
       </c>
       <c r="AF5" t="n">
         <v>2.878375269847945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.22916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1252727.182612771</v>
+        <v>1613050.112390699</v>
       </c>
     </row>
     <row r="6">
@@ -15127,28 +15127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>976.3589584106782</v>
+        <v>1267.524323119139</v>
       </c>
       <c r="AB6" t="n">
-        <v>1335.897400814731</v>
+        <v>1734.282698118161</v>
       </c>
       <c r="AC6" t="n">
-        <v>1208.40122782475</v>
+        <v>1568.765191490818</v>
       </c>
       <c r="AD6" t="n">
-        <v>976358.9584106782</v>
+        <v>1267524.323119139</v>
       </c>
       <c r="AE6" t="n">
-        <v>1335897.400814731</v>
+        <v>1734282.698118161</v>
       </c>
       <c r="AF6" t="n">
         <v>2.943049906455822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1208401.22782475</v>
+        <v>1568765.191490818</v>
       </c>
     </row>
     <row r="7">
@@ -15233,28 +15233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>967.5801012019315</v>
+        <v>1249.003382822642</v>
       </c>
       <c r="AB7" t="n">
-        <v>1323.885781085878</v>
+        <v>1708.941530518275</v>
       </c>
       <c r="AC7" t="n">
-        <v>1197.535980224405</v>
+        <v>1545.842549360112</v>
       </c>
       <c r="AD7" t="n">
-        <v>967580.1012019315</v>
+        <v>1249003.382822642</v>
       </c>
       <c r="AE7" t="n">
-        <v>1323885.781085878</v>
+        <v>1708941.530518275</v>
       </c>
       <c r="AF7" t="n">
         <v>2.976513400024078e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>57</v>
+        <v>56.30208333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1197535.980224404</v>
+        <v>1545842.549360112</v>
       </c>
     </row>
     <row r="8">
@@ -15339,28 +15339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>947.528897476007</v>
+        <v>1229.019498904421</v>
       </c>
       <c r="AB8" t="n">
-        <v>1296.450839551391</v>
+        <v>1681.59869891463</v>
       </c>
       <c r="AC8" t="n">
-        <v>1172.719391004787</v>
+        <v>1521.109279228814</v>
       </c>
       <c r="AD8" t="n">
-        <v>947528.897476007</v>
+        <v>1229019.498904421</v>
       </c>
       <c r="AE8" t="n">
-        <v>1296450.839551391</v>
+        <v>1681598.69891463</v>
       </c>
       <c r="AF8" t="n">
         <v>3.015961710711272e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>56</v>
+        <v>55.57291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1172719.391004787</v>
+        <v>1521109.279228814</v>
       </c>
     </row>
     <row r="9">
@@ -15445,28 +15445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>941.5290834791712</v>
+        <v>1213.277601819836</v>
       </c>
       <c r="AB9" t="n">
-        <v>1288.241629347808</v>
+        <v>1660.059940840014</v>
       </c>
       <c r="AC9" t="n">
-        <v>1165.293656301335</v>
+        <v>1501.626149995002</v>
       </c>
       <c r="AD9" t="n">
-        <v>941529.0834791712</v>
+        <v>1213277.601819836</v>
       </c>
       <c r="AE9" t="n">
-        <v>1288241.629347808</v>
+        <v>1660059.940840014</v>
       </c>
       <c r="AF9" t="n">
         <v>3.036683335574691e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>56</v>
+        <v>55.18229166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1165293.656301335</v>
+        <v>1501626.149995002</v>
       </c>
     </row>
     <row r="10">
@@ -15551,28 +15551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>926.3178368544453</v>
+        <v>1207.774272864079</v>
       </c>
       <c r="AB10" t="n">
-        <v>1267.428930643019</v>
+        <v>1652.53004337301</v>
       </c>
       <c r="AC10" t="n">
-        <v>1146.467292350125</v>
+        <v>1494.814895373972</v>
       </c>
       <c r="AD10" t="n">
-        <v>926317.8368544453</v>
+        <v>1207774.272864079</v>
       </c>
       <c r="AE10" t="n">
-        <v>1267428.930643019</v>
+        <v>1652530.04337301</v>
       </c>
       <c r="AF10" t="n">
         <v>3.052900259380846e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>54.89583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1146467.292350125</v>
+        <v>1494814.895373972</v>
       </c>
     </row>
     <row r="11">
@@ -15657,28 +15657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>920.7974875641437</v>
+        <v>1192.613325712513</v>
       </c>
       <c r="AB11" t="n">
-        <v>1259.875745203406</v>
+        <v>1631.786166626453</v>
       </c>
       <c r="AC11" t="n">
-        <v>1139.634972327906</v>
+        <v>1476.050785109893</v>
       </c>
       <c r="AD11" t="n">
-        <v>920797.4875641437</v>
+        <v>1192613.325712512</v>
       </c>
       <c r="AE11" t="n">
-        <v>1259875.745203406</v>
+        <v>1631786.166626453</v>
       </c>
       <c r="AF11" t="n">
         <v>3.06988941765396e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.58333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1139634.972327906</v>
+        <v>1476050.785109892</v>
       </c>
     </row>
     <row r="12">
@@ -15763,28 +15763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>915.1944906104479</v>
+        <v>1186.908843532332</v>
       </c>
       <c r="AB12" t="n">
-        <v>1252.209477584579</v>
+        <v>1623.981042443538</v>
       </c>
       <c r="AC12" t="n">
-        <v>1132.700362530946</v>
+        <v>1468.990571024434</v>
       </c>
       <c r="AD12" t="n">
-        <v>915194.4906104479</v>
+        <v>1186908.843532332</v>
       </c>
       <c r="AE12" t="n">
-        <v>1252209.477584579</v>
+        <v>1623981.042443538</v>
       </c>
       <c r="AF12" t="n">
         <v>3.086428105821348e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1132700.362530946</v>
+        <v>1468990.571024434</v>
       </c>
     </row>
     <row r="13">
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>911.3346114524281</v>
+        <v>1183.048964374312</v>
       </c>
       <c r="AB13" t="n">
-        <v>1246.928220634726</v>
+        <v>1618.699785493684</v>
       </c>
       <c r="AC13" t="n">
-        <v>1127.923141332097</v>
+        <v>1464.213349825584</v>
       </c>
       <c r="AD13" t="n">
-        <v>911334.6114524282</v>
+        <v>1183048.964374312</v>
       </c>
       <c r="AE13" t="n">
-        <v>1246928.220634726</v>
+        <v>1618699.785493684</v>
       </c>
       <c r="AF13" t="n">
         <v>3.096016683786098e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>54.140625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1127923.141332097</v>
+        <v>1464213.349825584</v>
       </c>
     </row>
     <row r="14">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>907.8496820726973</v>
+        <v>1169.923437133316</v>
       </c>
       <c r="AB14" t="n">
-        <v>1242.159986513145</v>
+        <v>1600.74086006516</v>
       </c>
       <c r="AC14" t="n">
-        <v>1123.60998078282</v>
+        <v>1447.968399034447</v>
       </c>
       <c r="AD14" t="n">
-        <v>907849.6820726973</v>
+        <v>1169923.437133316</v>
       </c>
       <c r="AE14" t="n">
-        <v>1242159.986513145</v>
+        <v>1600740.86006516</v>
       </c>
       <c r="AF14" t="n">
         <v>3.102645029627503e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.01041666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1123609.98078282</v>
+        <v>1447968.399034448</v>
       </c>
     </row>
     <row r="15">
@@ -16081,28 +16081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>894.0420510896932</v>
+        <v>1165.823723819281</v>
       </c>
       <c r="AB15" t="n">
-        <v>1223.267776652511</v>
+        <v>1595.131451442311</v>
       </c>
       <c r="AC15" t="n">
-        <v>1106.520816915903</v>
+        <v>1442.894344497709</v>
       </c>
       <c r="AD15" t="n">
-        <v>894042.0510896932</v>
+        <v>1165823.723819281</v>
       </c>
       <c r="AE15" t="n">
-        <v>1223267.776652511</v>
+        <v>1595131.451442311</v>
       </c>
       <c r="AF15" t="n">
         <v>3.110367374297101e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>54</v>
+        <v>53.88020833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1106520.816915903</v>
+        <v>1442894.344497709</v>
       </c>
     </row>
     <row r="16">
@@ -16187,28 +16187,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>889.966991627587</v>
+        <v>1161.748664357175</v>
       </c>
       <c r="AB16" t="n">
-        <v>1217.692100517522</v>
+        <v>1589.555775307322</v>
       </c>
       <c r="AC16" t="n">
-        <v>1101.477275485726</v>
+        <v>1437.850803067533</v>
       </c>
       <c r="AD16" t="n">
-        <v>889966.991627587</v>
+        <v>1161748.664357175</v>
       </c>
       <c r="AE16" t="n">
-        <v>1217692.100517522</v>
+        <v>1589555.775307322</v>
       </c>
       <c r="AF16" t="n">
         <v>3.118733247689164e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>54</v>
+        <v>53.72395833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1101477.275485726</v>
+        <v>1437850.803067533</v>
       </c>
     </row>
     <row r="17">
@@ -16293,28 +16293,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>885.3932037641814</v>
+        <v>1157.174876493769</v>
       </c>
       <c r="AB17" t="n">
-        <v>1211.434042181531</v>
+        <v>1583.297716971331</v>
       </c>
       <c r="AC17" t="n">
-        <v>1095.816477454082</v>
+        <v>1432.190005035889</v>
       </c>
       <c r="AD17" t="n">
-        <v>885393.2037641814</v>
+        <v>1157174.876493769</v>
       </c>
       <c r="AE17" t="n">
-        <v>1211434.042181531</v>
+        <v>1583297.716971331</v>
       </c>
       <c r="AF17" t="n">
         <v>3.126455592358762e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>54</v>
+        <v>53.59375</v>
       </c>
       <c r="AH17" t="n">
-        <v>1095816.477454082</v>
+        <v>1432190.005035889</v>
       </c>
     </row>
     <row r="18">
@@ -16399,28 +16399,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>884.2624287150931</v>
+        <v>1156.044101444681</v>
       </c>
       <c r="AB18" t="n">
-        <v>1209.886865873094</v>
+        <v>1581.750540662894</v>
       </c>
       <c r="AC18" t="n">
-        <v>1094.416961481047</v>
+        <v>1430.790489062853</v>
       </c>
       <c r="AD18" t="n">
-        <v>884262.4287150931</v>
+        <v>1156044.101444681</v>
       </c>
       <c r="AE18" t="n">
-        <v>1209886.865873094</v>
+        <v>1581750.540662894</v>
       </c>
       <c r="AF18" t="n">
         <v>3.126648650975502e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>54</v>
+        <v>53.59375</v>
       </c>
       <c r="AH18" t="n">
-        <v>1094416.961481047</v>
+        <v>1430790.489062853</v>
       </c>
     </row>
     <row r="19">
@@ -16505,28 +16505,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>879.5804714158133</v>
+        <v>1151.260658918916</v>
       </c>
       <c r="AB19" t="n">
-        <v>1203.480805342841</v>
+        <v>1575.205623568552</v>
       </c>
       <c r="AC19" t="n">
-        <v>1088.622286376839</v>
+        <v>1424.870209670147</v>
       </c>
       <c r="AD19" t="n">
-        <v>879580.4714158133</v>
+        <v>1151260.658918916</v>
       </c>
       <c r="AE19" t="n">
-        <v>1203480.805342841</v>
+        <v>1575205.623568552</v>
       </c>
       <c r="AF19" t="n">
         <v>3.133920525539372e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>54</v>
+        <v>53.46354166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1088622.286376839</v>
+        <v>1424870.209670146</v>
       </c>
     </row>
     <row r="20">
@@ -16611,28 +16611,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>877.3934172765543</v>
+        <v>1149.073604779657</v>
       </c>
       <c r="AB20" t="n">
-        <v>1200.488381383488</v>
+        <v>1572.213199609199</v>
       </c>
       <c r="AC20" t="n">
-        <v>1085.915455160273</v>
+        <v>1422.163378453581</v>
       </c>
       <c r="AD20" t="n">
-        <v>877393.4172765543</v>
+        <v>1149073.604779657</v>
       </c>
       <c r="AE20" t="n">
-        <v>1200488.381383488</v>
+        <v>1572213.199609199</v>
       </c>
       <c r="AF20" t="n">
         <v>3.133083938200166e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>54</v>
+        <v>53.48958333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>1085915.455160273</v>
+        <v>1422163.378453581</v>
       </c>
     </row>
     <row r="21">
@@ -16717,28 +16717,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>873.6399096760567</v>
+        <v>1135.679499317894</v>
       </c>
       <c r="AB21" t="n">
-        <v>1195.352666691419</v>
+        <v>1553.886793610186</v>
       </c>
       <c r="AC21" t="n">
-        <v>1081.269885870394</v>
+        <v>1405.586018921842</v>
       </c>
       <c r="AD21" t="n">
-        <v>873639.9096760567</v>
+        <v>1135679.499317894</v>
       </c>
       <c r="AE21" t="n">
-        <v>1195352.666691419</v>
+        <v>1553886.793610186</v>
       </c>
       <c r="AF21" t="n">
         <v>3.14280122190941e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>54</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>1081269.885870394</v>
+        <v>1405586.018921841</v>
       </c>
     </row>
     <row r="22">
@@ -16823,28 +16823,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>875.2694596500182</v>
+        <v>1137.309049291856</v>
       </c>
       <c r="AB22" t="n">
-        <v>1197.582288856464</v>
+        <v>1556.116415775231</v>
       </c>
       <c r="AC22" t="n">
-        <v>1083.286716025302</v>
+        <v>1407.602849076749</v>
       </c>
       <c r="AD22" t="n">
-        <v>875269.4596500183</v>
+        <v>1137309.049291856</v>
       </c>
       <c r="AE22" t="n">
-        <v>1197582.288856464</v>
+        <v>1556116.415775231</v>
       </c>
       <c r="AF22" t="n">
         <v>3.142222046059189e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>54</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>1083286.716025302</v>
+        <v>1407602.849076749</v>
       </c>
     </row>
   </sheetData>
@@ -17120,28 +17120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>749.5080237984416</v>
+        <v>1015.902571102683</v>
       </c>
       <c r="AB2" t="n">
-        <v>1025.50994412136</v>
+        <v>1390.002716241</v>
       </c>
       <c r="AC2" t="n">
-        <v>927.636714366663</v>
+        <v>1257.342807884023</v>
       </c>
       <c r="AD2" t="n">
-        <v>749508.0237984416</v>
+        <v>1015902.571102683</v>
       </c>
       <c r="AE2" t="n">
-        <v>1025509.94412136</v>
+        <v>1390002.716241</v>
       </c>
       <c r="AF2" t="n">
         <v>5.259884378348927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>927636.714366663</v>
+        <v>1257342.807884023</v>
       </c>
     </row>
     <row r="3">
@@ -17226,28 +17226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>679.4120254648936</v>
+        <v>927.4275360428779</v>
       </c>
       <c r="AB3" t="n">
-        <v>929.6015067842052</v>
+        <v>1268.947270029105</v>
       </c>
       <c r="AC3" t="n">
-        <v>840.8816436806288</v>
+        <v>1147.840723556206</v>
       </c>
       <c r="AD3" t="n">
-        <v>679412.0254648937</v>
+        <v>927427.5360428779</v>
       </c>
       <c r="AE3" t="n">
-        <v>929601.5067842052</v>
+        <v>1268947.270029105</v>
       </c>
       <c r="AF3" t="n">
         <v>5.621063797797804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>840881.6436806289</v>
+        <v>1147840.723556206</v>
       </c>
     </row>
     <row r="4">
@@ -17332,28 +17332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.7528809200984</v>
+        <v>925.7683914980827</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.3313920217249</v>
+        <v>1266.677155266625</v>
       </c>
       <c r="AC4" t="n">
-        <v>838.8281854849537</v>
+        <v>1145.78726536053</v>
       </c>
       <c r="AD4" t="n">
-        <v>677752.8809200984</v>
+        <v>925768.3914980827</v>
       </c>
       <c r="AE4" t="n">
-        <v>927331.392021725</v>
+        <v>1266677.155266625</v>
       </c>
       <c r="AF4" t="n">
         <v>5.645057831411783e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>838828.1854849537</v>
+        <v>1145787.26536053</v>
       </c>
     </row>
   </sheetData>
@@ -17629,28 +17629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1255.813869519712</v>
+        <v>1620.072237039906</v>
       </c>
       <c r="AB2" t="n">
-        <v>1718.259938874674</v>
+        <v>2216.654307260818</v>
       </c>
       <c r="AC2" t="n">
-        <v>1554.271621901446</v>
+        <v>2005.099931269705</v>
       </c>
       <c r="AD2" t="n">
-        <v>1255813.869519712</v>
+        <v>1620072.237039906</v>
       </c>
       <c r="AE2" t="n">
-        <v>1718259.938874674</v>
+        <v>2216654.307260818</v>
       </c>
       <c r="AF2" t="n">
         <v>2.563387748485714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1554271.621901446</v>
+        <v>2005099.931269705</v>
       </c>
     </row>
     <row r="3">
@@ -17735,28 +17735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1016.343630240538</v>
+        <v>1313.483902305438</v>
       </c>
       <c r="AB3" t="n">
-        <v>1390.60619281157</v>
+        <v>1797.166621954388</v>
       </c>
       <c r="AC3" t="n">
-        <v>1257.888689497683</v>
+        <v>1625.647561894257</v>
       </c>
       <c r="AD3" t="n">
-        <v>1016343.630240538</v>
+        <v>1313483.902305438</v>
       </c>
       <c r="AE3" t="n">
-        <v>1390606.19281157</v>
+        <v>1797166.621954388</v>
       </c>
       <c r="AF3" t="n">
         <v>3.051641837649841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.19791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1257888.689497683</v>
+        <v>1625647.561894257</v>
       </c>
     </row>
     <row r="4">
@@ -17841,28 +17841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>941.3097793602793</v>
+        <v>1228.894762030509</v>
       </c>
       <c r="AB4" t="n">
-        <v>1287.941567777325</v>
+        <v>1681.42802842074</v>
       </c>
       <c r="AC4" t="n">
-        <v>1165.022232186</v>
+        <v>1520.954897287324</v>
       </c>
       <c r="AD4" t="n">
-        <v>941309.7793602793</v>
+        <v>1228894.762030509</v>
       </c>
       <c r="AE4" t="n">
-        <v>1287941.567777325</v>
+        <v>1681428.02842074</v>
       </c>
       <c r="AF4" t="n">
         <v>3.224742934909673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.91666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1165022.232186</v>
+        <v>1520954.897287324</v>
       </c>
     </row>
     <row r="5">
@@ -17947,28 +17947,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>912.3280056797433</v>
+        <v>1190.257224758676</v>
       </c>
       <c r="AB5" t="n">
-        <v>1248.287426441999</v>
+        <v>1628.562445357576</v>
       </c>
       <c r="AC5" t="n">
-        <v>1129.152626444781</v>
+        <v>1473.134731274396</v>
       </c>
       <c r="AD5" t="n">
-        <v>912328.0056797434</v>
+        <v>1190257.224758676</v>
       </c>
       <c r="AE5" t="n">
-        <v>1248287.426441999</v>
+        <v>1628562.445357576</v>
       </c>
       <c r="AF5" t="n">
         <v>3.318177371417363e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.27604166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1129152.626444781</v>
+        <v>1473134.731274396</v>
       </c>
     </row>
     <row r="6">
@@ -18053,28 +18053,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>889.4122975455067</v>
+        <v>1157.787238259627</v>
       </c>
       <c r="AB6" t="n">
-        <v>1216.933143603044</v>
+        <v>1584.135577354872</v>
       </c>
       <c r="AC6" t="n">
-        <v>1100.790752353963</v>
+        <v>1432.947901200369</v>
       </c>
       <c r="AD6" t="n">
-        <v>889412.2975455067</v>
+        <v>1157787.238259627</v>
       </c>
       <c r="AE6" t="n">
-        <v>1216933.143603044</v>
+        <v>1584135.577354872</v>
       </c>
       <c r="AF6" t="n">
         <v>3.380562605309681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1100790.752353963</v>
+        <v>1432947.901200369</v>
       </c>
     </row>
     <row r="7">
@@ -18159,28 +18159,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>871.2885593263817</v>
+        <v>1139.730819848206</v>
       </c>
       <c r="AB7" t="n">
-        <v>1192.135445408738</v>
+        <v>1559.429989091406</v>
       </c>
       <c r="AC7" t="n">
-        <v>1078.359711671533</v>
+        <v>1410.600179606258</v>
       </c>
       <c r="AD7" t="n">
-        <v>871288.5593263817</v>
+        <v>1139730.819848206</v>
       </c>
       <c r="AE7" t="n">
-        <v>1192135.445408738</v>
+        <v>1559429.989091407</v>
       </c>
       <c r="AF7" t="n">
         <v>3.415914237848661e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.66145833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1078359.711671533</v>
+        <v>1410600.179606258</v>
       </c>
     </row>
     <row r="8">
@@ -18265,28 +18265,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>863.3177711004196</v>
+        <v>1131.658546395759</v>
       </c>
       <c r="AB8" t="n">
-        <v>1181.229461311618</v>
+        <v>1548.385148430197</v>
       </c>
       <c r="AC8" t="n">
-        <v>1068.494579389998</v>
+        <v>1400.609443036223</v>
       </c>
       <c r="AD8" t="n">
-        <v>863317.7711004196</v>
+        <v>1131658.546395759</v>
       </c>
       <c r="AE8" t="n">
-        <v>1181229.461311618</v>
+        <v>1548385.148430197</v>
       </c>
       <c r="AF8" t="n">
         <v>3.446676611802459e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1068494.579389998</v>
+        <v>1400609.443036223</v>
       </c>
     </row>
     <row r="9">
@@ -18371,28 +18371,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>847.6011372036301</v>
+        <v>1116.009232306674</v>
       </c>
       <c r="AB9" t="n">
-        <v>1159.725269445078</v>
+        <v>1526.973066494499</v>
       </c>
       <c r="AC9" t="n">
-        <v>1049.042717413878</v>
+        <v>1381.240900148422</v>
       </c>
       <c r="AD9" t="n">
-        <v>847601.1372036301</v>
+        <v>1116009.232306674</v>
       </c>
       <c r="AE9" t="n">
-        <v>1159725.269445078</v>
+        <v>1526973.066494499</v>
       </c>
       <c r="AF9" t="n">
         <v>3.464173160158465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.90625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1049042.717413878</v>
+        <v>1381240.900148422</v>
       </c>
     </row>
     <row r="10">
@@ -18477,28 +18477,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>842.4819474462829</v>
+        <v>1110.890042549327</v>
       </c>
       <c r="AB10" t="n">
-        <v>1152.720968176363</v>
+        <v>1519.968765225784</v>
       </c>
       <c r="AC10" t="n">
-        <v>1042.70689682765</v>
+        <v>1374.905079562195</v>
       </c>
       <c r="AD10" t="n">
-        <v>842481.947446283</v>
+        <v>1110890.042549327</v>
       </c>
       <c r="AE10" t="n">
-        <v>1152720.968176363</v>
+        <v>1519968.765225784</v>
       </c>
       <c r="AF10" t="n">
         <v>3.476148256779174e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.72395833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1042706.89682765</v>
+        <v>1374905.079562195</v>
       </c>
     </row>
     <row r="11">
@@ -18583,28 +18583,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>836.1791839733105</v>
+        <v>1094.965680903837</v>
       </c>
       <c r="AB11" t="n">
-        <v>1144.097249134342</v>
+        <v>1498.180351089173</v>
       </c>
       <c r="AC11" t="n">
-        <v>1034.906213427534</v>
+        <v>1355.19612109055</v>
       </c>
       <c r="AD11" t="n">
-        <v>836179.1839733105</v>
+        <v>1094965.680903838</v>
       </c>
       <c r="AE11" t="n">
-        <v>1144097.249134342</v>
+        <v>1498180.351089173</v>
       </c>
       <c r="AF11" t="n">
         <v>3.49859259954733e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>54</v>
+        <v>53.38541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1034906.213427534</v>
+        <v>1355196.12109055</v>
       </c>
     </row>
     <row r="12">
@@ -18689,28 +18689,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>831.1563662099366</v>
+        <v>1089.942863140463</v>
       </c>
       <c r="AB12" t="n">
-        <v>1137.224808279413</v>
+        <v>1491.307910234244</v>
       </c>
       <c r="AC12" t="n">
-        <v>1028.689668682268</v>
+        <v>1348.979576345284</v>
       </c>
       <c r="AD12" t="n">
-        <v>831156.3662099366</v>
+        <v>1089942.863140464</v>
       </c>
       <c r="AE12" t="n">
-        <v>1137224.808279413</v>
+        <v>1491307.910234244</v>
       </c>
       <c r="AF12" t="n">
         <v>3.50397063695184e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>54</v>
+        <v>53.28125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1028689.668682268</v>
+        <v>1348979.576345284</v>
       </c>
     </row>
     <row r="13">
@@ -18795,28 +18795,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>825.3905664049099</v>
+        <v>1084.177063335437</v>
       </c>
       <c r="AB13" t="n">
-        <v>1129.335786617041</v>
+        <v>1483.418888571872</v>
       </c>
       <c r="AC13" t="n">
-        <v>1021.553564175041</v>
+        <v>1341.843471838057</v>
       </c>
       <c r="AD13" t="n">
-        <v>825390.5664049099</v>
+        <v>1084177.063335437</v>
       </c>
       <c r="AE13" t="n">
-        <v>1129335.786617041</v>
+        <v>1483418.888571871</v>
       </c>
       <c r="AF13" t="n">
         <v>3.51967450617301e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>54</v>
+        <v>53.046875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1021553.564175041</v>
+        <v>1341843.471838058</v>
       </c>
     </row>
     <row r="14">
@@ -18901,28 +18901,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>821.6137600775995</v>
+        <v>1080.400257008127</v>
       </c>
       <c r="AB14" t="n">
-        <v>1124.168193579079</v>
+        <v>1478.25129553391</v>
       </c>
       <c r="AC14" t="n">
-        <v>1016.87915896386</v>
+        <v>1337.169066626877</v>
       </c>
       <c r="AD14" t="n">
-        <v>821613.7600775996</v>
+        <v>1080400.257008126</v>
       </c>
       <c r="AE14" t="n">
-        <v>1124168.193579079</v>
+        <v>1478251.29553391</v>
       </c>
       <c r="AF14" t="n">
         <v>3.518168655699747e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>54</v>
+        <v>53.07291666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1016879.15896386</v>
+        <v>1337169.066626877</v>
       </c>
     </row>
     <row r="15">
@@ -19007,28 +19007,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>812.2853463335542</v>
+        <v>1080.659276017817</v>
       </c>
       <c r="AB15" t="n">
-        <v>1111.404646353907</v>
+        <v>1478.60569677008</v>
       </c>
       <c r="AC15" t="n">
-        <v>1005.333746772108</v>
+        <v>1337.489644306472</v>
       </c>
       <c r="AD15" t="n">
-        <v>812285.3463335542</v>
+        <v>1080659.276017817</v>
       </c>
       <c r="AE15" t="n">
-        <v>1111404.646353907</v>
+        <v>1478605.69677008</v>
       </c>
       <c r="AF15" t="n">
         <v>3.526128151058421e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>53</v>
+        <v>52.96875</v>
       </c>
       <c r="AH15" t="n">
-        <v>1005333.746772108</v>
+        <v>1337489.644306473</v>
       </c>
     </row>
   </sheetData>
@@ -19304,28 +19304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1384.391328730211</v>
+        <v>1770.332449811067</v>
       </c>
       <c r="AB2" t="n">
-        <v>1894.185291003639</v>
+        <v>2422.246959387056</v>
       </c>
       <c r="AC2" t="n">
-        <v>1713.406905336004</v>
+        <v>2191.071109228114</v>
       </c>
       <c r="AD2" t="n">
-        <v>1384391.328730211</v>
+        <v>1770332.449811067</v>
       </c>
       <c r="AE2" t="n">
-        <v>1894185.291003639</v>
+        <v>2422246.959387056</v>
       </c>
       <c r="AF2" t="n">
         <v>2.2916874066033e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1713406.905336004</v>
+        <v>2191071.109228114</v>
       </c>
     </row>
     <row r="3">
@@ -19410,28 +19410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1088.229704363017</v>
+        <v>1396.96311300629</v>
       </c>
       <c r="AB3" t="n">
-        <v>1488.963890815709</v>
+        <v>1911.386560878148</v>
       </c>
       <c r="AC3" t="n">
-        <v>1346.859266850203</v>
+        <v>1728.966510155824</v>
       </c>
       <c r="AD3" t="n">
-        <v>1088229.704363017</v>
+        <v>1396963.11300629</v>
       </c>
       <c r="AE3" t="n">
-        <v>1488963.890815709</v>
+        <v>1911386.560878148</v>
       </c>
       <c r="AF3" t="n">
         <v>2.796551733080175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>64</v>
+        <v>63.02083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1346859.266850203</v>
+        <v>1728966.510155824</v>
       </c>
     </row>
     <row r="4">
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1003.608472272579</v>
+        <v>1293.039700048992</v>
       </c>
       <c r="AB4" t="n">
-        <v>1373.18138784429</v>
+        <v>1769.193962492571</v>
       </c>
       <c r="AC4" t="n">
-        <v>1242.126883460613</v>
+        <v>1600.344573791601</v>
       </c>
       <c r="AD4" t="n">
-        <v>1003608.472272579</v>
+        <v>1293039.700048992</v>
       </c>
       <c r="AE4" t="n">
-        <v>1373181.38784429</v>
+        <v>1769193.962492571</v>
       </c>
       <c r="AF4" t="n">
         <v>2.984852116008002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>59.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1242126.883460613</v>
+        <v>1600344.573791601</v>
       </c>
     </row>
     <row r="5">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>963.4176068522422</v>
+        <v>1243.197744195226</v>
       </c>
       <c r="AB5" t="n">
-        <v>1318.190472680343</v>
+        <v>1700.997999621545</v>
       </c>
       <c r="AC5" t="n">
-        <v>1192.384224059678</v>
+        <v>1538.65713790335</v>
       </c>
       <c r="AD5" t="n">
-        <v>963417.6068522423</v>
+        <v>1243197.744195226</v>
       </c>
       <c r="AE5" t="n">
-        <v>1318190.472680343</v>
+        <v>1700997.999621544</v>
       </c>
       <c r="AF5" t="n">
         <v>3.076904064527716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>58</v>
+        <v>57.29166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1192384.224059678</v>
+        <v>1538657.13790335</v>
       </c>
     </row>
     <row r="6">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>939.4746113178978</v>
+        <v>1219.2205832421</v>
       </c>
       <c r="AB6" t="n">
-        <v>1285.430609899838</v>
+        <v>1668.191390207793</v>
       </c>
       <c r="AC6" t="n">
-        <v>1162.750916604189</v>
+        <v>1508.981545247681</v>
       </c>
       <c r="AD6" t="n">
-        <v>939474.6113178978</v>
+        <v>1219220.5832421</v>
       </c>
       <c r="AE6" t="n">
-        <v>1285430.609899838</v>
+        <v>1668191.390207793</v>
       </c>
       <c r="AF6" t="n">
         <v>3.137008572090589e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>57</v>
+        <v>56.19791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1162750.916604189</v>
+        <v>1508981.545247681</v>
       </c>
     </row>
     <row r="7">
@@ -19834,28 +19834,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>918.3818790041597</v>
+        <v>1188.510925913713</v>
       </c>
       <c r="AB7" t="n">
-        <v>1256.570603002507</v>
+        <v>1626.17308223663</v>
       </c>
       <c r="AC7" t="n">
-        <v>1136.645268259865</v>
+        <v>1470.973405616221</v>
       </c>
       <c r="AD7" t="n">
-        <v>918381.8790041597</v>
+        <v>1188510.925913713</v>
       </c>
       <c r="AE7" t="n">
-        <v>1256570.603002507</v>
+        <v>1626173.08223663</v>
       </c>
       <c r="AF7" t="n">
         <v>3.184794363013323e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.33854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1136645.268259865</v>
+        <v>1470973.405616221</v>
       </c>
     </row>
     <row r="8">
@@ -19940,28 +19940,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>901.141672897839</v>
+        <v>1180.920799210965</v>
       </c>
       <c r="AB8" t="n">
-        <v>1232.981792423625</v>
+        <v>1615.787936029173</v>
       </c>
       <c r="AC8" t="n">
-        <v>1115.307740655528</v>
+        <v>1461.579403187159</v>
       </c>
       <c r="AD8" t="n">
-        <v>901141.672897839</v>
+        <v>1180920.799210965</v>
       </c>
       <c r="AE8" t="n">
-        <v>1232981.792423625</v>
+        <v>1615787.936029173</v>
       </c>
       <c r="AF8" t="n">
         <v>3.21274837385056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1115307.740655528</v>
+        <v>1461579.403187159</v>
       </c>
     </row>
     <row r="9">
@@ -20046,28 +20046,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>895.6764870821177</v>
+        <v>1165.872853799375</v>
       </c>
       <c r="AB9" t="n">
-        <v>1225.504084083574</v>
+        <v>1595.198673248538</v>
       </c>
       <c r="AC9" t="n">
-        <v>1108.543694304421</v>
+        <v>1442.955150749096</v>
       </c>
       <c r="AD9" t="n">
-        <v>895676.4870821177</v>
+        <v>1165872.853799375</v>
       </c>
       <c r="AE9" t="n">
-        <v>1225504.084083574</v>
+        <v>1595198.673248538</v>
       </c>
       <c r="AF9" t="n">
         <v>3.228451353303923e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1108543.694304422</v>
+        <v>1442955.150749096</v>
       </c>
     </row>
     <row r="10">
@@ -20152,28 +20152,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>888.6202781339019</v>
+        <v>1158.715159624674</v>
       </c>
       <c r="AB10" t="n">
-        <v>1215.849467702657</v>
+        <v>1585.405200303531</v>
       </c>
       <c r="AC10" t="n">
-        <v>1099.81050096056</v>
+        <v>1434.096353116735</v>
       </c>
       <c r="AD10" t="n">
-        <v>888620.2781339019</v>
+        <v>1158715.159624674</v>
       </c>
       <c r="AE10" t="n">
-        <v>1215849.467702657</v>
+        <v>1585405.200303531</v>
       </c>
       <c r="AF10" t="n">
         <v>3.254104065428166e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>55</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1099810.50096056</v>
+        <v>1434096.353116735</v>
       </c>
     </row>
     <row r="11">
@@ -20258,28 +20258,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>873.6789087792561</v>
+        <v>1143.841110077733</v>
       </c>
       <c r="AB11" t="n">
-        <v>1195.406026984935</v>
+        <v>1565.053869516652</v>
       </c>
       <c r="AC11" t="n">
-        <v>1081.318153532389</v>
+        <v>1415.687324776884</v>
       </c>
       <c r="AD11" t="n">
-        <v>873678.908779256</v>
+        <v>1143841.110077733</v>
       </c>
       <c r="AE11" t="n">
-        <v>1195406.026984935</v>
+        <v>1565053.869516652</v>
       </c>
       <c r="AF11" t="n">
         <v>3.267302690399743e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>54</v>
+        <v>53.95833333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1081318.153532389</v>
+        <v>1415687.324776884</v>
       </c>
     </row>
     <row r="12">
@@ -20364,28 +20364,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>869.8162040916246</v>
+        <v>1139.978405390101</v>
       </c>
       <c r="AB12" t="n">
-        <v>1190.120904020814</v>
+        <v>1559.768746552531</v>
       </c>
       <c r="AC12" t="n">
-        <v>1076.537435286247</v>
+        <v>1410.906606530742</v>
       </c>
       <c r="AD12" t="n">
-        <v>869816.2040916246</v>
+        <v>1139978.405390101</v>
       </c>
       <c r="AE12" t="n">
-        <v>1190120.904020814</v>
+        <v>1559768.746552531</v>
       </c>
       <c r="AF12" t="n">
         <v>3.277929275633269e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>54</v>
+        <v>53.77604166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1076537.435286247</v>
+        <v>1410906.606530742</v>
       </c>
     </row>
     <row r="13">
@@ -20470,28 +20470,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>865.6801875374306</v>
+        <v>1135.842388835908</v>
       </c>
       <c r="AB13" t="n">
-        <v>1184.461823703194</v>
+        <v>1554.10966623491</v>
       </c>
       <c r="AC13" t="n">
-        <v>1071.41844965157</v>
+        <v>1405.787620896065</v>
       </c>
       <c r="AD13" t="n">
-        <v>865680.1875374306</v>
+        <v>1135842.388835907</v>
       </c>
       <c r="AE13" t="n">
-        <v>1184461.823703194</v>
+        <v>1554109.66623491</v>
       </c>
       <c r="AF13" t="n">
         <v>3.28381789292828e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>54</v>
+        <v>53.671875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1071418.449651571</v>
+        <v>1405787.620896065</v>
       </c>
     </row>
     <row r="14">
@@ -20576,28 +20576,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>861.4719070465529</v>
+        <v>1131.63410834503</v>
       </c>
       <c r="AB14" t="n">
-        <v>1178.703868679343</v>
+        <v>1548.351711211059</v>
       </c>
       <c r="AC14" t="n">
-        <v>1066.210025773855</v>
+        <v>1400.57919701835</v>
       </c>
       <c r="AD14" t="n">
-        <v>861471.907046553</v>
+        <v>1131634.10834503</v>
       </c>
       <c r="AE14" t="n">
-        <v>1178703.868679343</v>
+        <v>1548351.711211059</v>
       </c>
       <c r="AF14" t="n">
         <v>3.291398641629904e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>54</v>
+        <v>53.54166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1066210.025773855</v>
+        <v>1400579.19701835</v>
       </c>
     </row>
     <row r="15">
@@ -20682,28 +20682,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>856.7026904414337</v>
+        <v>1117.180646917557</v>
       </c>
       <c r="AB15" t="n">
-        <v>1172.178416117231</v>
+        <v>1528.575847644275</v>
       </c>
       <c r="AC15" t="n">
-        <v>1060.307353245742</v>
+        <v>1382.690714114781</v>
       </c>
       <c r="AD15" t="n">
-        <v>856702.6904414337</v>
+        <v>1117180.646917557</v>
       </c>
       <c r="AE15" t="n">
-        <v>1172178.416117231</v>
+        <v>1528575.847644275</v>
       </c>
       <c r="AF15" t="n">
         <v>3.301077633275727e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>54</v>
+        <v>53.38541666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1060307.353245742</v>
+        <v>1382690.714114781</v>
       </c>
     </row>
     <row r="16">
@@ -20788,28 +20788,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>853.0870822347374</v>
+        <v>1113.565038710861</v>
       </c>
       <c r="AB16" t="n">
-        <v>1167.231381459453</v>
+        <v>1523.628812986497</v>
       </c>
       <c r="AC16" t="n">
-        <v>1055.832456632495</v>
+        <v>1378.215817501535</v>
       </c>
       <c r="AD16" t="n">
-        <v>853087.0822347375</v>
+        <v>1113565.038710861</v>
       </c>
       <c r="AE16" t="n">
-        <v>1167231.381459453</v>
+        <v>1523628.812986497</v>
       </c>
       <c r="AF16" t="n">
         <v>3.30940291979626e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>54</v>
+        <v>53.25520833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1055832.456632495</v>
+        <v>1378215.817501535</v>
       </c>
     </row>
     <row r="17">
@@ -20894,28 +20894,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>847.3377452059343</v>
+        <v>1107.815701682058</v>
       </c>
       <c r="AB17" t="n">
-        <v>1159.364884893796</v>
+        <v>1515.76231642084</v>
       </c>
       <c r="AC17" t="n">
-        <v>1048.716727458367</v>
+        <v>1371.100088327407</v>
       </c>
       <c r="AD17" t="n">
-        <v>847337.7452059343</v>
+        <v>1107815.701682058</v>
       </c>
       <c r="AE17" t="n">
-        <v>1159364.884893796</v>
+        <v>1515762.31642084</v>
       </c>
       <c r="AF17" t="n">
         <v>3.317592835804264e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1048716.727458367</v>
+        <v>1371100.088327407</v>
       </c>
     </row>
     <row r="18">
@@ -21000,28 +21000,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>848.6730777703624</v>
+        <v>1109.151034246486</v>
       </c>
       <c r="AB18" t="n">
-        <v>1161.191945819161</v>
+        <v>1517.589377346205</v>
       </c>
       <c r="AC18" t="n">
-        <v>1050.369416253312</v>
+        <v>1372.752777122351</v>
       </c>
       <c r="AD18" t="n">
-        <v>848673.0777703624</v>
+        <v>1109151.034246486</v>
       </c>
       <c r="AE18" t="n">
-        <v>1161191.945819161</v>
+        <v>1517589.377346205</v>
       </c>
       <c r="AF18" t="n">
         <v>3.315088481322477e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>54</v>
+        <v>53.17708333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1050369.416253312</v>
+        <v>1372752.777122351</v>
       </c>
     </row>
   </sheetData>
@@ -21297,28 +21297,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1668.018236932052</v>
+        <v>2097.514645072423</v>
       </c>
       <c r="AB2" t="n">
-        <v>2282.256139541483</v>
+        <v>2869.912073203379</v>
       </c>
       <c r="AC2" t="n">
-        <v>2064.440816750252</v>
+        <v>2596.011692883741</v>
       </c>
       <c r="AD2" t="n">
-        <v>1668018.236932052</v>
+        <v>2097514.645072423</v>
       </c>
       <c r="AE2" t="n">
-        <v>2282256.139541483</v>
+        <v>2869912.073203379</v>
       </c>
       <c r="AF2" t="n">
         <v>1.872834864909501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2064440.816750253</v>
+        <v>2596011.692883741</v>
       </c>
     </row>
     <row r="3">
@@ -21403,28 +21403,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1238.889866904029</v>
+        <v>1570.724770887764</v>
       </c>
       <c r="AB3" t="n">
-        <v>1695.103771861596</v>
+        <v>2149.1349270149</v>
       </c>
       <c r="AC3" t="n">
-        <v>1533.32544696821</v>
+        <v>1944.024505910412</v>
       </c>
       <c r="AD3" t="n">
-        <v>1238889.866904029</v>
+        <v>1570724.770887764</v>
       </c>
       <c r="AE3" t="n">
-        <v>1695103.771861596</v>
+        <v>2149134.9270149</v>
       </c>
       <c r="AF3" t="n">
         <v>2.387098410507556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>68</v>
+        <v>67.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1533325.44696821</v>
+        <v>1944024.505910412</v>
       </c>
     </row>
     <row r="4">
@@ -21509,28 +21509,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1115.024123439048</v>
+        <v>1427.366511858164</v>
       </c>
       <c r="AB4" t="n">
-        <v>1525.625197081877</v>
+        <v>1952.985832490575</v>
       </c>
       <c r="AC4" t="n">
-        <v>1380.021669500794</v>
+        <v>1766.595605670506</v>
       </c>
       <c r="AD4" t="n">
-        <v>1115024.123439047</v>
+        <v>1427366.511858164</v>
       </c>
       <c r="AE4" t="n">
-        <v>1525625.197081877</v>
+        <v>1952985.832490575</v>
       </c>
       <c r="AF4" t="n">
         <v>2.587807633496413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.92708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1380021.669500794</v>
+        <v>1766595.605670506</v>
       </c>
     </row>
     <row r="5">
@@ -21615,28 +21615,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1065.409841133621</v>
+        <v>1367.989394575967</v>
       </c>
       <c r="AB5" t="n">
-        <v>1457.740747203937</v>
+        <v>1871.743441091536</v>
       </c>
       <c r="AC5" t="n">
-        <v>1318.616016242781</v>
+        <v>1693.106874082178</v>
       </c>
       <c r="AD5" t="n">
-        <v>1065409.841133621</v>
+        <v>1367989.394575967</v>
       </c>
       <c r="AE5" t="n">
-        <v>1457740.747203937</v>
+        <v>1871743.441091536</v>
       </c>
       <c r="AF5" t="n">
         <v>2.692284721367374e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>60</v>
+        <v>59.50520833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1318616.016242781</v>
+        <v>1693106.874082178</v>
       </c>
     </row>
     <row r="6">
@@ -21721,28 +21721,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1026.482236104326</v>
+        <v>1319.2989545699</v>
       </c>
       <c r="AB6" t="n">
-        <v>1404.478280638127</v>
+        <v>1805.123033004626</v>
       </c>
       <c r="AC6" t="n">
-        <v>1270.436844731671</v>
+        <v>1632.844624240753</v>
       </c>
       <c r="AD6" t="n">
-        <v>1026482.236104326</v>
+        <v>1319298.9545699</v>
       </c>
       <c r="AE6" t="n">
-        <v>1404478.280638127</v>
+        <v>1805123.033004626</v>
       </c>
       <c r="AF6" t="n">
         <v>2.762366819768449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>58</v>
+        <v>57.99479166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1270436.844731671</v>
+        <v>1632844.624240753</v>
       </c>
     </row>
     <row r="7">
@@ -21827,28 +21827,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1014.279555892807</v>
+        <v>1297.300284992686</v>
       </c>
       <c r="AB7" t="n">
-        <v>1387.78203522847</v>
+        <v>1775.023482776276</v>
       </c>
       <c r="AC7" t="n">
-        <v>1255.334065550584</v>
+        <v>1605.617732841212</v>
       </c>
       <c r="AD7" t="n">
-        <v>1014279.555892807</v>
+        <v>1297300.284992686</v>
       </c>
       <c r="AE7" t="n">
-        <v>1387782.03522847</v>
+        <v>1775023.482776276</v>
       </c>
       <c r="AF7" t="n">
         <v>2.806052763460077e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>58</v>
+        <v>57.109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1255334.065550584</v>
+        <v>1605617.732841212</v>
       </c>
     </row>
     <row r="8">
@@ -21933,28 +21933,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>993.9548661417826</v>
+        <v>1276.941429822881</v>
       </c>
       <c r="AB8" t="n">
-        <v>1359.97289804909</v>
+        <v>1747.167598963648</v>
       </c>
       <c r="AC8" t="n">
-        <v>1230.178993393235</v>
+        <v>1580.420375483683</v>
       </c>
       <c r="AD8" t="n">
-        <v>993954.8661417826</v>
+        <v>1276941.429822881</v>
       </c>
       <c r="AE8" t="n">
-        <v>1359972.89804909</v>
+        <v>1747167.598963648</v>
       </c>
       <c r="AF8" t="n">
         <v>2.844077993321239e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>57</v>
+        <v>56.328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1230178.993393235</v>
+        <v>1580420.375483683</v>
       </c>
     </row>
     <row r="9">
@@ -22039,28 +22039,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>977.5435937554932</v>
+        <v>1260.597477244296</v>
       </c>
       <c r="AB9" t="n">
-        <v>1337.51827115593</v>
+        <v>1724.805082001329</v>
       </c>
       <c r="AC9" t="n">
-        <v>1209.867404575491</v>
+        <v>1560.192105754258</v>
       </c>
       <c r="AD9" t="n">
-        <v>977543.5937554933</v>
+        <v>1260597.477244296</v>
       </c>
       <c r="AE9" t="n">
-        <v>1337518.27115593</v>
+        <v>1724805.082001329</v>
       </c>
       <c r="AF9" t="n">
         <v>2.866105553661525e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>56</v>
+        <v>55.91145833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1209867.404575491</v>
+        <v>1560192.105754258</v>
       </c>
     </row>
     <row r="10">
@@ -22145,28 +22145,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>970.0095999133149</v>
+        <v>1243.267494036423</v>
       </c>
       <c r="AB10" t="n">
-        <v>1327.209928404711</v>
+        <v>1701.093434431417</v>
       </c>
       <c r="AC10" t="n">
-        <v>1200.542875588599</v>
+        <v>1538.743464548912</v>
       </c>
       <c r="AD10" t="n">
-        <v>970009.5999133149</v>
+        <v>1243267.494036423</v>
       </c>
       <c r="AE10" t="n">
-        <v>1327209.928404711</v>
+        <v>1701093.434431417</v>
       </c>
       <c r="AF10" t="n">
         <v>2.891332647905985e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>56</v>
+        <v>55.41666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1200542.875588599</v>
+        <v>1538743.464548912</v>
       </c>
     </row>
     <row r="11">
@@ -22251,28 +22251,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>965.1883764834257</v>
+        <v>1238.446270606534</v>
       </c>
       <c r="AB11" t="n">
-        <v>1320.61331781057</v>
+        <v>1694.496823837276</v>
       </c>
       <c r="AC11" t="n">
-        <v>1194.575836251161</v>
+        <v>1532.776425211475</v>
       </c>
       <c r="AD11" t="n">
-        <v>965188.3764834257</v>
+        <v>1238446.270606534</v>
       </c>
       <c r="AE11" t="n">
-        <v>1320613.31781057</v>
+        <v>1694496.823837276</v>
       </c>
       <c r="AF11" t="n">
         <v>2.90628431595819e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>56</v>
+        <v>55.13020833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1194575.836251162</v>
+        <v>1532776.425211475</v>
       </c>
     </row>
     <row r="12">
@@ -22357,28 +22357,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>961.8807605812833</v>
+        <v>1235.138654704392</v>
       </c>
       <c r="AB12" t="n">
-        <v>1316.087691811544</v>
+        <v>1689.97119783825</v>
       </c>
       <c r="AC12" t="n">
-        <v>1190.482129645727</v>
+        <v>1528.68271860604</v>
       </c>
       <c r="AD12" t="n">
-        <v>961880.7605812834</v>
+        <v>1235138.654704392</v>
       </c>
       <c r="AE12" t="n">
-        <v>1316087.691811544</v>
+        <v>1689971.19783825</v>
       </c>
       <c r="AF12" t="n">
         <v>2.911945029788654e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>56</v>
+        <v>55.02604166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1190482.129645727</v>
+        <v>1528682.71860604</v>
       </c>
     </row>
     <row r="13">
@@ -22463,28 +22463,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>946.4834766749765</v>
+        <v>1219.808690605789</v>
       </c>
       <c r="AB13" t="n">
-        <v>1295.02044869071</v>
+        <v>1668.996064648258</v>
       </c>
       <c r="AC13" t="n">
-        <v>1171.425514640284</v>
+        <v>1509.709422688916</v>
       </c>
       <c r="AD13" t="n">
-        <v>946483.4766749765</v>
+        <v>1219808.690605789</v>
       </c>
       <c r="AE13" t="n">
-        <v>1295020.44869071</v>
+        <v>1668996.064648258</v>
       </c>
       <c r="AF13" t="n">
         <v>2.930403879235821e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>54.6875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1171425.514640284</v>
+        <v>1509709.422688916</v>
       </c>
     </row>
     <row r="14">
@@ -22569,28 +22569,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>942.5313327435872</v>
+        <v>1215.8565466744</v>
       </c>
       <c r="AB14" t="n">
-        <v>1289.612951007499</v>
+        <v>1663.588566965046</v>
       </c>
       <c r="AC14" t="n">
-        <v>1166.534100946487</v>
+        <v>1504.818008995119</v>
       </c>
       <c r="AD14" t="n">
-        <v>942531.3327435872</v>
+        <v>1215856.5466744</v>
       </c>
       <c r="AE14" t="n">
-        <v>1289612.951007499</v>
+        <v>1663588.566965046</v>
       </c>
       <c r="AF14" t="n">
         <v>2.940248598940976e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.50520833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1166534.100946487</v>
+        <v>1504818.008995119</v>
       </c>
     </row>
     <row r="15">
@@ -22675,28 +22675,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>939.3378552115822</v>
+        <v>1212.56158391591</v>
       </c>
       <c r="AB15" t="n">
-        <v>1285.243494161924</v>
+        <v>1659.080253555382</v>
       </c>
       <c r="AC15" t="n">
-        <v>1162.581658929683</v>
+        <v>1500.739962689816</v>
       </c>
       <c r="AD15" t="n">
-        <v>939337.8552115823</v>
+        <v>1212561.58391591</v>
       </c>
       <c r="AE15" t="n">
-        <v>1285243.494161924</v>
+        <v>1659080.253555382</v>
       </c>
       <c r="AF15" t="n">
         <v>2.946216960262226e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>54.375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1162581.658929683</v>
+        <v>1500739.962689816</v>
       </c>
     </row>
     <row r="16">
@@ -22781,28 +22781,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>935.3124444765139</v>
+        <v>1208.536173180841</v>
       </c>
       <c r="AB16" t="n">
-        <v>1279.735749605616</v>
+        <v>1653.572508999073</v>
       </c>
       <c r="AC16" t="n">
-        <v>1157.59956578366</v>
+        <v>1495.757869543794</v>
       </c>
       <c r="AD16" t="n">
-        <v>935312.4444765139</v>
+        <v>1208536.173180841</v>
       </c>
       <c r="AE16" t="n">
-        <v>1279735.749605616</v>
+        <v>1653572.508999073</v>
       </c>
       <c r="AF16" t="n">
         <v>2.954461913015295e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>54.24479166666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1157599.56578366</v>
+        <v>1495757.869543794</v>
       </c>
     </row>
     <row r="17">
@@ -22887,28 +22887,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>931.457939489725</v>
+        <v>1194.987164054843</v>
       </c>
       <c r="AB17" t="n">
-        <v>1274.461845833933</v>
+        <v>1635.034156972786</v>
       </c>
       <c r="AC17" t="n">
-        <v>1152.828995985976</v>
+        <v>1478.988791816154</v>
       </c>
       <c r="AD17" t="n">
-        <v>931457.939489725</v>
+        <v>1194987.164054843</v>
       </c>
       <c r="AE17" t="n">
-        <v>1274461.845833933</v>
+        <v>1635034.156972786</v>
       </c>
       <c r="AF17" t="n">
         <v>2.96252227727389e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>55</v>
+        <v>54.08854166666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1152828.995985976</v>
+        <v>1478988.791816154</v>
       </c>
     </row>
     <row r="18">
@@ -22993,28 +22993,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>928.6281271214651</v>
+        <v>1192.157351686583</v>
       </c>
       <c r="AB18" t="n">
-        <v>1270.589971709169</v>
+        <v>1631.162282848022</v>
       </c>
       <c r="AC18" t="n">
-        <v>1149.32664809347</v>
+        <v>1475.486443923649</v>
       </c>
       <c r="AD18" t="n">
-        <v>928628.1271214652</v>
+        <v>1192157.351686583</v>
       </c>
       <c r="AE18" t="n">
-        <v>1270589.971709169</v>
+        <v>1631162.282848022</v>
       </c>
       <c r="AF18" t="n">
         <v>2.96430663272045e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>55</v>
+        <v>54.0625</v>
       </c>
       <c r="AH18" t="n">
-        <v>1149326.64809347</v>
+        <v>1475486.443923649</v>
       </c>
     </row>
     <row r="19">
@@ -23099,28 +23099,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>916.6321320203235</v>
+        <v>1189.923180532355</v>
       </c>
       <c r="AB19" t="n">
-        <v>1254.176521985833</v>
+        <v>1628.105391310133</v>
       </c>
       <c r="AC19" t="n">
-        <v>1134.479674975309</v>
+        <v>1472.721297823762</v>
       </c>
       <c r="AD19" t="n">
-        <v>916632.1320203235</v>
+        <v>1189923.180532355</v>
       </c>
       <c r="AE19" t="n">
-        <v>1254176.521985834</v>
+        <v>1628105.391310133</v>
       </c>
       <c r="AF19" t="n">
         <v>2.97138252500853e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>54</v>
+        <v>53.93229166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1134479.674975309</v>
+        <v>1472721.297823762</v>
       </c>
     </row>
     <row r="20">
@@ -23205,28 +23205,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>912.7464199587088</v>
+        <v>1186.037468470741</v>
       </c>
       <c r="AB20" t="n">
-        <v>1248.859919317615</v>
+        <v>1622.788788641914</v>
       </c>
       <c r="AC20" t="n">
-        <v>1129.670481403846</v>
+        <v>1467.912104252299</v>
       </c>
       <c r="AD20" t="n">
-        <v>912746.4199587088</v>
+        <v>1186037.468470741</v>
       </c>
       <c r="AE20" t="n">
-        <v>1248859.919317615</v>
+        <v>1622788.788641914</v>
       </c>
       <c r="AF20" t="n">
         <v>2.971013348019587e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>54</v>
+        <v>53.93229166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1129670.481403846</v>
+        <v>1467912.104252299</v>
       </c>
     </row>
     <row r="21">
@@ -23311,28 +23311,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>910.8084073884706</v>
+        <v>1184.099455900502</v>
       </c>
       <c r="AB21" t="n">
-        <v>1246.208245019935</v>
+        <v>1620.137114344234</v>
       </c>
       <c r="AC21" t="n">
-        <v>1127.271879179488</v>
+        <v>1465.513502027941</v>
       </c>
       <c r="AD21" t="n">
-        <v>910808.4073884706</v>
+        <v>1184099.455900502</v>
       </c>
       <c r="AE21" t="n">
-        <v>1246208.245019935</v>
+        <v>1620137.114344234</v>
       </c>
       <c r="AF21" t="n">
         <v>2.978581476292925e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>54</v>
+        <v>53.80208333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>1127271.879179488</v>
+        <v>1465513.502027941</v>
       </c>
     </row>
     <row r="22">
@@ -23417,28 +23417,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>908.4721022361755</v>
+        <v>1181.763150748207</v>
       </c>
       <c r="AB22" t="n">
-        <v>1243.011609240056</v>
+        <v>1616.940478564355</v>
       </c>
       <c r="AC22" t="n">
-        <v>1124.380325831934</v>
+        <v>1462.621948680387</v>
       </c>
       <c r="AD22" t="n">
-        <v>908472.1022361754</v>
+        <v>1181763.150748207</v>
       </c>
       <c r="AE22" t="n">
-        <v>1243011.609240056</v>
+        <v>1616940.478564355</v>
       </c>
       <c r="AF22" t="n">
         <v>2.977658533820567e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>54</v>
+        <v>53.80208333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>1124380.325831934</v>
+        <v>1462621.948680387</v>
       </c>
     </row>
     <row r="23">
@@ -23523,28 +23523,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>905.1664748171305</v>
+        <v>1178.457523329162</v>
       </c>
       <c r="AB23" t="n">
-        <v>1238.488703971329</v>
+        <v>1612.417573295628</v>
       </c>
       <c r="AC23" t="n">
-        <v>1120.289080294118</v>
+        <v>1458.53070314257</v>
       </c>
       <c r="AD23" t="n">
-        <v>905166.4748171305</v>
+        <v>1178457.523329162</v>
       </c>
       <c r="AE23" t="n">
-        <v>1238488.703971329</v>
+        <v>1612417.573295628</v>
       </c>
       <c r="AF23" t="n">
         <v>2.98688795854415e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>1120289.080294118</v>
+        <v>1458530.70314257</v>
       </c>
     </row>
     <row r="24">
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>902.3392187750294</v>
+        <v>1175.630267287061</v>
       </c>
       <c r="AB24" t="n">
-        <v>1234.620327524792</v>
+        <v>1608.549196849092</v>
       </c>
       <c r="AC24" t="n">
-        <v>1116.789896266338</v>
+        <v>1455.03151911479</v>
       </c>
       <c r="AD24" t="n">
-        <v>902339.2187750294</v>
+        <v>1175630.267287061</v>
       </c>
       <c r="AE24" t="n">
-        <v>1234620.327524792</v>
+        <v>1608549.196849092</v>
       </c>
       <c r="AF24" t="n">
         <v>2.98799548951098e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>54</v>
+        <v>53.61979166666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>1116789.896266338</v>
+        <v>1455031.51911479</v>
       </c>
     </row>
     <row r="25">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>899.8786242689164</v>
+        <v>1173.169672780948</v>
       </c>
       <c r="AB25" t="n">
-        <v>1231.253633567761</v>
+        <v>1605.18250289206</v>
       </c>
       <c r="AC25" t="n">
-        <v>1113.744514855381</v>
+        <v>1451.986137703833</v>
       </c>
       <c r="AD25" t="n">
-        <v>899878.6242689164</v>
+        <v>1173169.672780948</v>
       </c>
       <c r="AE25" t="n">
-        <v>1231253.63356776</v>
+        <v>1605182.50289206</v>
       </c>
       <c r="AF25" t="n">
         <v>2.987134076536779e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH25" t="n">
-        <v>1113744.514855381</v>
+        <v>1451986.137703833</v>
       </c>
     </row>
     <row r="26">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>900.4049227703586</v>
+        <v>1173.69597128239</v>
       </c>
       <c r="AB26" t="n">
-        <v>1231.973738396085</v>
+        <v>1605.902607720384</v>
       </c>
       <c r="AC26" t="n">
-        <v>1114.395893889563</v>
+        <v>1452.637516738016</v>
       </c>
       <c r="AD26" t="n">
-        <v>900404.9227703585</v>
+        <v>1173695.97128239</v>
       </c>
       <c r="AE26" t="n">
-        <v>1231973.738396085</v>
+        <v>1605902.607720384</v>
       </c>
       <c r="AF26" t="n">
         <v>2.98621113406442e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH26" t="n">
-        <v>1114395.893889563</v>
+        <v>1452637.516738016</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1142.733426358949</v>
+        <v>1475.822910754676</v>
       </c>
       <c r="AB2" t="n">
-        <v>1563.538287785055</v>
+        <v>2019.286015206229</v>
       </c>
       <c r="AC2" t="n">
-        <v>1414.316388038618</v>
+        <v>1826.568192000667</v>
       </c>
       <c r="AD2" t="n">
-        <v>1142733.426358949</v>
+        <v>1475822.910754676</v>
       </c>
       <c r="AE2" t="n">
-        <v>1563538.287785055</v>
+        <v>2019286.015206228</v>
       </c>
       <c r="AF2" t="n">
         <v>2.894946729042461e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.01041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1414316.388038618</v>
+        <v>1826568.192000667</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>945.3567902570331</v>
+        <v>1240.298975858374</v>
       </c>
       <c r="AB3" t="n">
-        <v>1293.478866627783</v>
+        <v>1697.031776898431</v>
       </c>
       <c r="AC3" t="n">
-        <v>1170.031059005818</v>
+        <v>1535.069445910302</v>
       </c>
       <c r="AD3" t="n">
-        <v>945356.7902570332</v>
+        <v>1240298.975858374</v>
       </c>
       <c r="AE3" t="n">
-        <v>1293478.866627784</v>
+        <v>1697031.776898431</v>
       </c>
       <c r="AF3" t="n">
         <v>3.358171956161177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.47916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1170031.059005818</v>
+        <v>1535069.445910302</v>
       </c>
     </row>
     <row r="4">
@@ -24350,28 +24350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>885.7998559074674</v>
+        <v>1161.838208175662</v>
       </c>
       <c r="AB4" t="n">
-        <v>1211.990441584202</v>
+        <v>1589.678293110171</v>
       </c>
       <c r="AC4" t="n">
-        <v>1096.319774878673</v>
+        <v>1437.961627943233</v>
       </c>
       <c r="AD4" t="n">
-        <v>885799.8559074674</v>
+        <v>1161838.208175662</v>
       </c>
       <c r="AE4" t="n">
-        <v>1211990.441584202</v>
+        <v>1589678.293110171</v>
       </c>
       <c r="AF4" t="n">
         <v>3.527614666329291e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>57</v>
+        <v>56.61458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1096319.774878673</v>
+        <v>1437961.627943233</v>
       </c>
     </row>
     <row r="5">
@@ -24456,28 +24456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>859.5232240728961</v>
+        <v>1125.974514544181</v>
       </c>
       <c r="AB5" t="n">
-        <v>1176.03759466496</v>
+        <v>1540.608005289081</v>
       </c>
       <c r="AC5" t="n">
-        <v>1063.798217209266</v>
+        <v>1393.574539521206</v>
       </c>
       <c r="AD5" t="n">
-        <v>859523.2240728962</v>
+        <v>1125974.514544181</v>
       </c>
       <c r="AE5" t="n">
-        <v>1176037.59466496</v>
+        <v>1540608.005289081</v>
       </c>
       <c r="AF5" t="n">
         <v>3.617513650628535e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.20833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1063798.217209266</v>
+        <v>1393574.539521206</v>
       </c>
     </row>
     <row r="6">
@@ -24562,28 +24562,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>839.0956890355264</v>
+        <v>1105.51281408803</v>
       </c>
       <c r="AB6" t="n">
-        <v>1148.087740027589</v>
+        <v>1512.611404018461</v>
       </c>
       <c r="AC6" t="n">
-        <v>1038.515857470618</v>
+        <v>1368.249894582377</v>
       </c>
       <c r="AD6" t="n">
-        <v>839095.6890355265</v>
+        <v>1105512.81408803</v>
       </c>
       <c r="AE6" t="n">
-        <v>1148087.740027589</v>
+        <v>1512611.404018461</v>
       </c>
       <c r="AF6" t="n">
         <v>3.669136531544398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1038515.857470618</v>
+        <v>1368249.894582378</v>
       </c>
     </row>
     <row r="7">
@@ -24668,28 +24668,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>820.7478179135071</v>
+        <v>1087.232262773715</v>
       </c>
       <c r="AB7" t="n">
-        <v>1122.983373307496</v>
+        <v>1487.59914722921</v>
       </c>
       <c r="AC7" t="n">
-        <v>1015.807416276091</v>
+        <v>1345.624772476169</v>
       </c>
       <c r="AD7" t="n">
-        <v>820747.8179135071</v>
+        <v>1087232.262773715</v>
       </c>
       <c r="AE7" t="n">
-        <v>1122983.373307496</v>
+        <v>1487599.14722921</v>
       </c>
       <c r="AF7" t="n">
         <v>3.707182518073771e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.88020833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1015807.416276091</v>
+        <v>1345624.77247617</v>
       </c>
     </row>
     <row r="8">
@@ -24774,28 +24774,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>813.3849060346731</v>
+        <v>1079.767865668396</v>
       </c>
       <c r="AB8" t="n">
-        <v>1112.909112446128</v>
+        <v>1477.386029803753</v>
       </c>
       <c r="AC8" t="n">
-        <v>1006.694628732018</v>
+        <v>1336.386380643598</v>
       </c>
       <c r="AD8" t="n">
-        <v>813384.9060346731</v>
+        <v>1079767.865668396</v>
       </c>
       <c r="AE8" t="n">
-        <v>1112909.112446128</v>
+        <v>1477386.029803753</v>
       </c>
       <c r="AF8" t="n">
         <v>3.735180068644781e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.48958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1006694.628732019</v>
+        <v>1336386.380643598</v>
       </c>
     </row>
     <row r="9">
@@ -24880,28 +24880,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>807.7510086321123</v>
+        <v>1064.682557114191</v>
       </c>
       <c r="AB9" t="n">
-        <v>1105.200565469933</v>
+        <v>1456.745645123046</v>
       </c>
       <c r="AC9" t="n">
-        <v>999.7217746602175</v>
+        <v>1317.715885307856</v>
       </c>
       <c r="AD9" t="n">
-        <v>807751.0086321123</v>
+        <v>1064682.557114191</v>
       </c>
       <c r="AE9" t="n">
-        <v>1105200.565469933</v>
+        <v>1456745.645123046</v>
       </c>
       <c r="AF9" t="n">
         <v>3.745075093367138e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>999721.7746602176</v>
+        <v>1317715.885307856</v>
       </c>
     </row>
     <row r="10">
@@ -24986,28 +24986,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>801.0305749641865</v>
+        <v>1057.962123446265</v>
       </c>
       <c r="AB10" t="n">
-        <v>1096.005371640868</v>
+        <v>1447.550451293982</v>
       </c>
       <c r="AC10" t="n">
-        <v>991.4041572246634</v>
+        <v>1309.398267872301</v>
       </c>
       <c r="AD10" t="n">
-        <v>801030.5749641865</v>
+        <v>1057962.123446265</v>
       </c>
       <c r="AE10" t="n">
-        <v>1096005.371640868</v>
+        <v>1447550.451293982</v>
       </c>
       <c r="AF10" t="n">
         <v>3.764711731575847e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.07291666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>991404.1572246634</v>
+        <v>1309398.267872301</v>
       </c>
     </row>
     <row r="11">
@@ -25092,28 +25092,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>785.5290575325324</v>
+        <v>1051.97933697396</v>
       </c>
       <c r="AB11" t="n">
-        <v>1074.795511612196</v>
+        <v>1439.364538900662</v>
       </c>
       <c r="AC11" t="n">
-        <v>972.2185364689019</v>
+        <v>1301.9936074688</v>
       </c>
       <c r="AD11" t="n">
-        <v>785529.0575325324</v>
+        <v>1051979.33697396</v>
       </c>
       <c r="AE11" t="n">
-        <v>1074795.511612196</v>
+        <v>1439364.538900662</v>
       </c>
       <c r="AF11" t="n">
         <v>3.779976149558398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>53</v>
+        <v>52.83854166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>972218.5364689019</v>
+        <v>1301993.6074688</v>
       </c>
     </row>
     <row r="12">
@@ -25198,28 +25198,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>786.5187476894762</v>
+        <v>1052.969027130904</v>
       </c>
       <c r="AB12" t="n">
-        <v>1076.149649346975</v>
+        <v>1440.718676635441</v>
       </c>
       <c r="AC12" t="n">
-        <v>973.4434371988177</v>
+        <v>1303.218508198716</v>
       </c>
       <c r="AD12" t="n">
-        <v>786518.7476894762</v>
+        <v>1052969.027130904</v>
       </c>
       <c r="AE12" t="n">
-        <v>1076149.649346975</v>
+        <v>1440718.676635441</v>
       </c>
       <c r="AF12" t="n">
         <v>3.778442037198342e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>52.86458333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>973443.4371988177</v>
+        <v>1303218.508198716</v>
       </c>
     </row>
   </sheetData>
@@ -25495,28 +25495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>967.258049411209</v>
+        <v>1277.420519738992</v>
       </c>
       <c r="AB2" t="n">
-        <v>1323.445135617889</v>
+        <v>1747.823110922826</v>
       </c>
       <c r="AC2" t="n">
-        <v>1197.137389341431</v>
+        <v>1581.013326301494</v>
       </c>
       <c r="AD2" t="n">
-        <v>967258.049411209</v>
+        <v>1277420.519738992</v>
       </c>
       <c r="AE2" t="n">
-        <v>1323445.135617889</v>
+        <v>1747823.110922826</v>
       </c>
       <c r="AF2" t="n">
         <v>3.563530925655708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>1197137.389341431</v>
+        <v>1581013.326301494</v>
       </c>
     </row>
     <row r="3">
@@ -25601,28 +25601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>835.8621626712927</v>
+        <v>1117.787667474355</v>
       </c>
       <c r="AB3" t="n">
-        <v>1143.663486602929</v>
+        <v>1529.406399949942</v>
       </c>
       <c r="AC3" t="n">
-        <v>1034.513848583329</v>
+        <v>1383.441999674083</v>
       </c>
       <c r="AD3" t="n">
-        <v>835862.1626712927</v>
+        <v>1117787.667474355</v>
       </c>
       <c r="AE3" t="n">
-        <v>1143663.486602928</v>
+        <v>1529406.399949942</v>
       </c>
       <c r="AF3" t="n">
         <v>3.992128007396221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.90104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1034513.848583329</v>
+        <v>1383441.999674083</v>
       </c>
     </row>
     <row r="4">
@@ -25707,28 +25707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>794.9230656568948</v>
+        <v>1067.44763709131</v>
       </c>
       <c r="AB4" t="n">
-        <v>1087.648807962338</v>
+        <v>1460.52894953446</v>
       </c>
       <c r="AC4" t="n">
-        <v>983.8451322551008</v>
+        <v>1321.138116456145</v>
       </c>
       <c r="AD4" t="n">
-        <v>794923.0656568948</v>
+        <v>1067447.63709131</v>
       </c>
       <c r="AE4" t="n">
-        <v>1087648.807962338</v>
+        <v>1460528.94953446</v>
       </c>
       <c r="AF4" t="n">
         <v>4.14040131609766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.86979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>983845.1322551008</v>
+        <v>1321138.116456145</v>
       </c>
     </row>
     <row r="5">
@@ -25813,28 +25813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>771.862097136315</v>
+        <v>1035.019900620864</v>
       </c>
       <c r="AB5" t="n">
-        <v>1056.095773454352</v>
+        <v>1416.15988988483</v>
       </c>
       <c r="AC5" t="n">
-        <v>955.3034750755953</v>
+        <v>1281.00357758711</v>
       </c>
       <c r="AD5" t="n">
-        <v>771862.097136315</v>
+        <v>1035019.900620864</v>
       </c>
       <c r="AE5" t="n">
-        <v>1056095.773454352</v>
+        <v>1416159.88988483</v>
       </c>
       <c r="AF5" t="n">
         <v>4.222823831816989e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.77604166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>955303.4750755953</v>
+        <v>1281003.57758711</v>
       </c>
     </row>
     <row r="6">
@@ -25919,28 +25919,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>761.4293297187854</v>
+        <v>1015.153045445764</v>
       </c>
       <c r="AB6" t="n">
-        <v>1041.821200812474</v>
+        <v>1388.977182170466</v>
       </c>
       <c r="AC6" t="n">
-        <v>942.391247612169</v>
+        <v>1256.415149345835</v>
       </c>
       <c r="AD6" t="n">
-        <v>761429.3297187855</v>
+        <v>1015153.045445764</v>
       </c>
       <c r="AE6" t="n">
-        <v>1041821.200812473</v>
+        <v>1388977.182170466</v>
       </c>
       <c r="AF6" t="n">
         <v>4.269835192634681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>942391.247612169</v>
+        <v>1256415.149345835</v>
       </c>
     </row>
     <row r="7">
@@ -26025,28 +26025,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>743.6678531382743</v>
+        <v>1006.791491204043</v>
       </c>
       <c r="AB7" t="n">
-        <v>1017.519164973974</v>
+        <v>1377.536534771204</v>
       </c>
       <c r="AC7" t="n">
-        <v>920.4085639659744</v>
+        <v>1246.066381277309</v>
       </c>
       <c r="AD7" t="n">
-        <v>743667.8531382743</v>
+        <v>1006791.491204043</v>
       </c>
       <c r="AE7" t="n">
-        <v>1017519.164973974</v>
+        <v>1377536.534771204</v>
       </c>
       <c r="AF7" t="n">
         <v>4.300449269901861e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>53</v>
+        <v>52.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>920408.5639659744</v>
+        <v>1246066.381277309</v>
       </c>
     </row>
     <row r="8">
@@ -26131,28 +26131,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>742.9142274919585</v>
+        <v>996.7052630266418</v>
       </c>
       <c r="AB8" t="n">
-        <v>1016.488021117067</v>
+        <v>1363.736112405901</v>
       </c>
       <c r="AC8" t="n">
-        <v>919.4758310315517</v>
+        <v>1233.583051853536</v>
       </c>
       <c r="AD8" t="n">
-        <v>742914.2274919585</v>
+        <v>996705.2630266418</v>
       </c>
       <c r="AE8" t="n">
-        <v>1016488.021117067</v>
+        <v>1363736.112405901</v>
       </c>
       <c r="AF8" t="n">
         <v>4.304286932009427e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.76041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>919475.8310315517</v>
+        <v>1233583.051853536</v>
       </c>
     </row>
   </sheetData>
@@ -49217,28 +49217,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>862.0426884040178</v>
+        <v>1150.493512932458</v>
       </c>
       <c r="AB2" t="n">
-        <v>1179.484836913722</v>
+        <v>1574.155980585788</v>
       </c>
       <c r="AC2" t="n">
-        <v>1066.916459496041</v>
+        <v>1423.920743140475</v>
       </c>
       <c r="AD2" t="n">
-        <v>862042.6884040178</v>
+        <v>1150493.512932458</v>
       </c>
       <c r="AE2" t="n">
-        <v>1179484.836913722</v>
+        <v>1574155.980585788</v>
       </c>
       <c r="AF2" t="n">
         <v>4.214845825432924e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.52083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1066916.459496041</v>
+        <v>1423920.743140475</v>
       </c>
     </row>
     <row r="3">
@@ -49323,28 +49323,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>767.2567889282736</v>
+        <v>1027.722391396053</v>
       </c>
       <c r="AB3" t="n">
-        <v>1049.794587592251</v>
+        <v>1406.175115820058</v>
       </c>
       <c r="AC3" t="n">
-        <v>949.6036655484031</v>
+        <v>1271.971736345361</v>
       </c>
       <c r="AD3" t="n">
-        <v>767256.7889282736</v>
+        <v>1027722.391396053</v>
       </c>
       <c r="AE3" t="n">
-        <v>1049794.587592251</v>
+        <v>1406175.115820058</v>
       </c>
       <c r="AF3" t="n">
         <v>4.624772150774239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>949603.6655484032</v>
+        <v>1271971.736345361</v>
       </c>
     </row>
     <row r="4">
@@ -49429,28 +49429,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>730.617950845245</v>
+        <v>991.116707701948</v>
       </c>
       <c r="AB4" t="n">
-        <v>999.6637129355944</v>
+        <v>1356.089604460995</v>
       </c>
       <c r="AC4" t="n">
-        <v>904.2572112098534</v>
+        <v>1226.666315894951</v>
       </c>
       <c r="AD4" t="n">
-        <v>730617.950845245</v>
+        <v>991116.707701948</v>
       </c>
       <c r="AE4" t="n">
-        <v>999663.7129355944</v>
+        <v>1356089.604460995</v>
       </c>
       <c r="AF4" t="n">
         <v>4.756026935949237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>904257.2112098534</v>
+        <v>1226666.315894951</v>
       </c>
     </row>
     <row r="5">
@@ -49535,28 +49535,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>709.4322601788174</v>
+        <v>969.8968516167398</v>
       </c>
       <c r="AB5" t="n">
-        <v>970.6765163190801</v>
+        <v>1327.055661211233</v>
       </c>
       <c r="AC5" t="n">
-        <v>878.0365119546333</v>
+        <v>1200.403331439551</v>
       </c>
       <c r="AD5" t="n">
-        <v>709432.2601788174</v>
+        <v>969896.8516167398</v>
       </c>
       <c r="AE5" t="n">
-        <v>970676.51631908</v>
+        <v>1327055.661211233</v>
       </c>
       <c r="AF5" t="n">
         <v>4.820380961217872e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.91666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>878036.5119546333</v>
+        <v>1200403.331439551</v>
       </c>
     </row>
     <row r="6">
@@ -49641,28 +49641,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.3499656826812</v>
+        <v>969.8145571206032</v>
       </c>
       <c r="AB6" t="n">
-        <v>970.5639173588894</v>
+        <v>1326.943062251042</v>
       </c>
       <c r="AC6" t="n">
-        <v>877.9346592811695</v>
+        <v>1200.301478766087</v>
       </c>
       <c r="AD6" t="n">
-        <v>709349.9656826812</v>
+        <v>969814.5571206033</v>
       </c>
       <c r="AE6" t="n">
-        <v>970563.9173588894</v>
+        <v>1326943.062251042</v>
       </c>
       <c r="AF6" t="n">
         <v>4.826258041151082e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>53</v>
+        <v>52.86458333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>877934.6592811695</v>
+        <v>1200301.478766087</v>
       </c>
     </row>
   </sheetData>
@@ -49938,28 +49938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>682.1662072976076</v>
+        <v>937.3607547324129</v>
       </c>
       <c r="AB2" t="n">
-        <v>933.3698998736515</v>
+        <v>1282.538338062807</v>
       </c>
       <c r="AC2" t="n">
-        <v>844.2903866225914</v>
+        <v>1160.134679131955</v>
       </c>
       <c r="AD2" t="n">
-        <v>682166.2072976076</v>
+        <v>937360.754732413</v>
       </c>
       <c r="AE2" t="n">
-        <v>933369.8998736516</v>
+        <v>1282538.338062807</v>
       </c>
       <c r="AF2" t="n">
         <v>6.097124356783599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.33854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>844290.3866225914</v>
+        <v>1160134.679131955</v>
       </c>
     </row>
     <row r="3">
@@ -50044,28 +50044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>651.8569468733758</v>
+        <v>907.0846486971047</v>
       </c>
       <c r="AB3" t="n">
-        <v>891.8994326110191</v>
+        <v>1241.113234097769</v>
       </c>
       <c r="AC3" t="n">
-        <v>806.7778025513384</v>
+        <v>1122.663128948841</v>
       </c>
       <c r="AD3" t="n">
-        <v>651856.9468733758</v>
+        <v>907084.6486971048</v>
       </c>
       <c r="AE3" t="n">
-        <v>891899.432611019</v>
+        <v>1241113.234097769</v>
       </c>
       <c r="AF3" t="n">
         <v>6.268259434025463e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>806777.8025513383</v>
+        <v>1122663.128948841</v>
       </c>
     </row>
   </sheetData>
@@ -50341,28 +50341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1317.174416312196</v>
+        <v>1692.268892552324</v>
       </c>
       <c r="AB2" t="n">
-        <v>1802.216146032422</v>
+        <v>2315.436956424557</v>
       </c>
       <c r="AC2" t="n">
-        <v>1630.215166481334</v>
+        <v>2094.454903039576</v>
       </c>
       <c r="AD2" t="n">
-        <v>1317174.416312196</v>
+        <v>1692268.892552324</v>
       </c>
       <c r="AE2" t="n">
-        <v>1802216.146032422</v>
+        <v>2315436.956424557</v>
       </c>
       <c r="AF2" t="n">
         <v>2.42574625975872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1630215.166481334</v>
+        <v>2094454.903039576</v>
       </c>
     </row>
     <row r="3">
@@ -50447,28 +50447,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1052.656425970893</v>
+        <v>1360.374701476577</v>
       </c>
       <c r="AB3" t="n">
-        <v>1440.290961937324</v>
+        <v>1861.3246820564</v>
       </c>
       <c r="AC3" t="n">
-        <v>1302.831613991087</v>
+        <v>1683.682466786536</v>
       </c>
       <c r="AD3" t="n">
-        <v>1052656.425970893</v>
+        <v>1360374.701476577</v>
       </c>
       <c r="AE3" t="n">
-        <v>1440290.961937324</v>
+        <v>1861324.6820564</v>
       </c>
       <c r="AF3" t="n">
         <v>2.915836782243898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>63</v>
+        <v>62.16145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1302831.613991087</v>
+        <v>1683682.466786536</v>
       </c>
     </row>
     <row r="4">
@@ -50553,28 +50553,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>972.1034556929287</v>
+        <v>1260.580860814178</v>
       </c>
       <c r="AB4" t="n">
-        <v>1330.074834256776</v>
+        <v>1724.782346668577</v>
       </c>
       <c r="AC4" t="n">
-        <v>1203.134358847063</v>
+        <v>1560.171540249754</v>
       </c>
       <c r="AD4" t="n">
-        <v>972103.4556929288</v>
+        <v>1260580.860814178</v>
       </c>
       <c r="AE4" t="n">
-        <v>1330074.834256776</v>
+        <v>1724782.346668577</v>
       </c>
       <c r="AF4" t="n">
         <v>3.10109962956789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>58.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1203134.358847063</v>
+        <v>1560171.540249754</v>
       </c>
     </row>
     <row r="5">
@@ -50659,28 +50659,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>932.0144272203657</v>
+        <v>1210.972882375884</v>
       </c>
       <c r="AB5" t="n">
-        <v>1275.223256897501</v>
+        <v>1656.906522019753</v>
       </c>
       <c r="AC5" t="n">
-        <v>1153.517739046285</v>
+        <v>1498.773689041096</v>
       </c>
       <c r="AD5" t="n">
-        <v>932014.4272203657</v>
+        <v>1210972.882375884</v>
       </c>
       <c r="AE5" t="n">
-        <v>1275223.256897501</v>
+        <v>1656906.522019753</v>
       </c>
       <c r="AF5" t="n">
         <v>3.196862844413048e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>57</v>
+        <v>56.69270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1153517.739046285</v>
+        <v>1498773.689041096</v>
       </c>
     </row>
     <row r="6">
@@ -50765,28 +50765,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>909.5075890031825</v>
+        <v>1188.43187873992</v>
       </c>
       <c r="AB6" t="n">
-        <v>1244.428407917127</v>
+        <v>1626.06492640613</v>
       </c>
       <c r="AC6" t="n">
-        <v>1125.661907231755</v>
+        <v>1470.875572026387</v>
       </c>
       <c r="AD6" t="n">
-        <v>909507.5890031825</v>
+        <v>1188431.87873992</v>
       </c>
       <c r="AE6" t="n">
-        <v>1244428.407917127</v>
+        <v>1626064.92640613</v>
       </c>
       <c r="AF6" t="n">
         <v>3.254418206823619e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>56</v>
+        <v>55.67708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1125661.907231755</v>
+        <v>1470875.572026387</v>
       </c>
     </row>
     <row r="7">
@@ -50871,28 +50871,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>900.2292287231435</v>
+        <v>1169.49992887874</v>
       </c>
       <c r="AB7" t="n">
-        <v>1231.733346049611</v>
+        <v>1600.161397387383</v>
       </c>
       <c r="AC7" t="n">
-        <v>1114.178444251244</v>
+        <v>1447.444239461357</v>
       </c>
       <c r="AD7" t="n">
-        <v>900229.2287231435</v>
+        <v>1169499.92887874</v>
       </c>
       <c r="AE7" t="n">
-        <v>1231733.346049611</v>
+        <v>1600161.397387383</v>
       </c>
       <c r="AF7" t="n">
         <v>3.294296347889227e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>56</v>
+        <v>55.02604166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1114178.444251244</v>
+        <v>1447444.239461357</v>
       </c>
     </row>
     <row r="8">
@@ -50977,28 +50977,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>882.8682673460993</v>
+        <v>1152.2062873094</v>
       </c>
       <c r="AB8" t="n">
-        <v>1207.979312781978</v>
+        <v>1576.499474050592</v>
       </c>
       <c r="AC8" t="n">
-        <v>1092.691462579679</v>
+        <v>1426.040576878111</v>
       </c>
       <c r="AD8" t="n">
-        <v>882868.2673460993</v>
+        <v>1152206.2873094</v>
       </c>
       <c r="AE8" t="n">
-        <v>1207979.312781978</v>
+        <v>1576499.474050592</v>
       </c>
       <c r="AF8" t="n">
         <v>3.32234327781844e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>55</v>
+        <v>54.55729166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1092691.462579679</v>
+        <v>1426040.576878111</v>
       </c>
     </row>
     <row r="9">
@@ -51083,28 +51083,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>876.6650818385524</v>
+        <v>1145.901616575368</v>
       </c>
       <c r="AB9" t="n">
-        <v>1199.491840705323</v>
+        <v>1567.873145409847</v>
       </c>
       <c r="AC9" t="n">
-        <v>1085.014022925778</v>
+        <v>1418.237532935711</v>
       </c>
       <c r="AD9" t="n">
-        <v>876665.0818385524</v>
+        <v>1145901.616575368</v>
       </c>
       <c r="AE9" t="n">
-        <v>1199491.840705323</v>
+        <v>1567873.145409847</v>
       </c>
       <c r="AF9" t="n">
         <v>3.341203620277044e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>55</v>
+        <v>54.24479166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1085014.022925778</v>
+        <v>1418237.532935711</v>
       </c>
     </row>
     <row r="10">
@@ -51189,28 +51189,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>860.2823384271098</v>
+        <v>1129.58619297163</v>
       </c>
       <c r="AB10" t="n">
-        <v>1177.076248414157</v>
+        <v>1545.549663049523</v>
       </c>
       <c r="AC10" t="n">
-        <v>1064.7377433024</v>
+        <v>1398.044572400652</v>
       </c>
       <c r="AD10" t="n">
-        <v>860282.3384271099</v>
+        <v>1129586.19297163</v>
       </c>
       <c r="AE10" t="n">
-        <v>1177076.248414157</v>
+        <v>1545549.663049523</v>
       </c>
       <c r="AF10" t="n">
         <v>3.365144423988333e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.85416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1064737.7433024</v>
+        <v>1398044.572400652</v>
       </c>
     </row>
     <row r="11">
@@ -51295,28 +51295,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>856.0002170187004</v>
+        <v>1125.30407156322</v>
       </c>
       <c r="AB11" t="n">
-        <v>1171.217260989308</v>
+        <v>1539.690675624673</v>
       </c>
       <c r="AC11" t="n">
-        <v>1059.437929414237</v>
+        <v>1392.744758512489</v>
       </c>
       <c r="AD11" t="n">
-        <v>856000.2170187003</v>
+        <v>1125304.07156322</v>
       </c>
       <c r="AE11" t="n">
-        <v>1171217.260989307</v>
+        <v>1539690.675624673</v>
       </c>
       <c r="AF11" t="n">
         <v>3.373217485704931e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>54</v>
+        <v>53.72395833333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1059437.929414237</v>
+        <v>1392744.758512489</v>
       </c>
     </row>
     <row r="12">
@@ -51401,28 +51401,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>850.7465387028227</v>
+        <v>1119.948908020857</v>
       </c>
       <c r="AB12" t="n">
-        <v>1164.028946541594</v>
+        <v>1532.363504612871</v>
       </c>
       <c r="AC12" t="n">
-        <v>1052.935657608551</v>
+        <v>1386.116882418304</v>
       </c>
       <c r="AD12" t="n">
-        <v>850746.5387028228</v>
+        <v>1119948.908020857</v>
       </c>
       <c r="AE12" t="n">
-        <v>1164028.946541594</v>
+        <v>1532363.504612871</v>
       </c>
       <c r="AF12" t="n">
         <v>3.389154823059249e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>54</v>
+        <v>53.46354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1052935.657608551</v>
+        <v>1386116.882418304</v>
       </c>
     </row>
     <row r="13">
@@ -51507,28 +51507,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>845.921234075347</v>
+        <v>1105.571499038726</v>
       </c>
       <c r="AB13" t="n">
-        <v>1157.426751872866</v>
+        <v>1512.691699357</v>
       </c>
       <c r="AC13" t="n">
-        <v>1046.963567132768</v>
+        <v>1368.322526646502</v>
       </c>
       <c r="AD13" t="n">
-        <v>845921.234075347</v>
+        <v>1105571.499038726</v>
       </c>
       <c r="AE13" t="n">
-        <v>1157426.751872866</v>
+        <v>1512691.699357</v>
       </c>
       <c r="AF13" t="n">
         <v>3.396810312618091e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>54</v>
+        <v>53.359375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1046963.567132768</v>
+        <v>1368322.526646502</v>
       </c>
     </row>
     <row r="14">
@@ -51613,28 +51613,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>841.4475805998115</v>
+        <v>1101.097845563191</v>
       </c>
       <c r="AB14" t="n">
-        <v>1151.305701823976</v>
+        <v>1506.570649308111</v>
       </c>
       <c r="AC14" t="n">
-        <v>1041.426701509596</v>
+        <v>1362.78566102333</v>
       </c>
       <c r="AD14" t="n">
-        <v>841447.5805998115</v>
+        <v>1101097.845563191</v>
       </c>
       <c r="AE14" t="n">
-        <v>1151305.701823976</v>
+        <v>1506570.649308111</v>
       </c>
       <c r="AF14" t="n">
         <v>3.406066495448329e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>54</v>
+        <v>53.203125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1041426.701509596</v>
+        <v>1362785.66102333</v>
       </c>
     </row>
     <row r="15">
@@ -51719,28 +51719,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>836.6416856397169</v>
+        <v>1096.291950603096</v>
       </c>
       <c r="AB15" t="n">
-        <v>1144.730064318453</v>
+        <v>1499.995011802587</v>
       </c>
       <c r="AC15" t="n">
-        <v>1035.478633618635</v>
+        <v>1356.837593132369</v>
       </c>
       <c r="AD15" t="n">
-        <v>836641.6856397169</v>
+        <v>1096291.950603096</v>
       </c>
       <c r="AE15" t="n">
-        <v>1144730.064318453</v>
+        <v>1499995.011802587</v>
       </c>
       <c r="AF15" t="n">
         <v>3.414000366445675e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>54</v>
+        <v>53.09895833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1035478.633618635</v>
+        <v>1356837.593132369</v>
       </c>
     </row>
     <row r="16">
@@ -51825,28 +51825,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>836.2916861801109</v>
+        <v>1095.94195114349</v>
       </c>
       <c r="AB16" t="n">
-        <v>1144.251179616933</v>
+        <v>1499.516127101068</v>
       </c>
       <c r="AC16" t="n">
-        <v>1035.04545300091</v>
+        <v>1356.404412514644</v>
       </c>
       <c r="AD16" t="n">
-        <v>836291.6861801109</v>
+        <v>1095941.95114349</v>
       </c>
       <c r="AE16" t="n">
-        <v>1144251.179616933</v>
+        <v>1499516.127101068</v>
       </c>
       <c r="AF16" t="n">
         <v>3.412121291735777e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1035045.45300091</v>
+        <v>1356404.412514644</v>
       </c>
     </row>
     <row r="17">
@@ -51931,28 +51931,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>837.5459517387025</v>
+        <v>1097.196216702082</v>
       </c>
       <c r="AB17" t="n">
-        <v>1145.96732108849</v>
+        <v>1501.232268572624</v>
       </c>
       <c r="AC17" t="n">
-        <v>1036.59780833904</v>
+        <v>1357.956767852774</v>
       </c>
       <c r="AD17" t="n">
-        <v>837545.9517387025</v>
+        <v>1097196.216702081</v>
       </c>
       <c r="AE17" t="n">
-        <v>1145967.32108849</v>
+        <v>1501232.268572624</v>
       </c>
       <c r="AF17" t="n">
         <v>3.412121291735777e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH17" t="n">
-        <v>1036597.80833904</v>
+        <v>1357956.767852774</v>
       </c>
     </row>
   </sheetData>
@@ -52228,28 +52228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1597.569577554507</v>
+        <v>2016.061899587737</v>
       </c>
       <c r="AB2" t="n">
-        <v>2185.865175805624</v>
+        <v>2758.464833389713</v>
       </c>
       <c r="AC2" t="n">
-        <v>1977.249271307778</v>
+        <v>2495.200821220708</v>
       </c>
       <c r="AD2" t="n">
-        <v>1597569.577554507</v>
+        <v>2016061.899587737</v>
       </c>
       <c r="AE2" t="n">
-        <v>2185865.175805624</v>
+        <v>2758464.833389713</v>
       </c>
       <c r="AF2" t="n">
         <v>1.964751480388517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.35937499999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1977249.271307778</v>
+        <v>2495200.821220708</v>
       </c>
     </row>
     <row r="3">
@@ -52334,28 +52334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1202.08083744088</v>
+        <v>1532.980365756251</v>
       </c>
       <c r="AB3" t="n">
-        <v>1644.740033850344</v>
+        <v>2097.491366748331</v>
       </c>
       <c r="AC3" t="n">
-        <v>1487.768353426803</v>
+        <v>1897.309734553492</v>
       </c>
       <c r="AD3" t="n">
-        <v>1202080.83744088</v>
+        <v>1532980.365756251</v>
       </c>
       <c r="AE3" t="n">
-        <v>1644740.033850344</v>
+        <v>2097491.366748331</v>
       </c>
       <c r="AF3" t="n">
         <v>2.474632253777439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>67</v>
+        <v>66.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1487768.353426803</v>
+        <v>1897309.734553492</v>
       </c>
     </row>
     <row r="4">
@@ -52440,28 +52440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1091.497429364915</v>
+        <v>1393.222136720187</v>
       </c>
       <c r="AB4" t="n">
-        <v>1493.434936325159</v>
+        <v>1906.267992083277</v>
       </c>
       <c r="AC4" t="n">
-        <v>1350.903602051382</v>
+        <v>1724.336450382778</v>
       </c>
       <c r="AD4" t="n">
-        <v>1091497.429364915</v>
+        <v>1393222.136720187</v>
       </c>
       <c r="AE4" t="n">
-        <v>1493434.936325158</v>
+        <v>1906267.992083277</v>
       </c>
       <c r="AF4" t="n">
         <v>2.676999832559575e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>62</v>
+        <v>61.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1350903.602051382</v>
+        <v>1724336.450382778</v>
       </c>
     </row>
     <row r="5">
@@ -52546,28 +52546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1033.767404716188</v>
+        <v>1335.491101041604</v>
       </c>
       <c r="AB5" t="n">
-        <v>1414.446169731833</v>
+        <v>1827.277842154297</v>
       </c>
       <c r="AC5" t="n">
-        <v>1279.453412480294</v>
+        <v>1652.885009499649</v>
       </c>
       <c r="AD5" t="n">
-        <v>1033767.404716188</v>
+        <v>1335491.101041604</v>
       </c>
       <c r="AE5" t="n">
-        <v>1414446.169731833</v>
+        <v>1827277.842154297</v>
       </c>
       <c r="AF5" t="n">
         <v>2.782145448384227e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>59</v>
+        <v>58.85416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1279453.412480294</v>
+        <v>1652885.009499649</v>
       </c>
     </row>
     <row r="6">
@@ -52652,28 +52652,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1007.217917630533</v>
+        <v>1299.239450581769</v>
       </c>
       <c r="AB6" t="n">
-        <v>1378.119990220535</v>
+        <v>1777.676734685207</v>
       </c>
       <c r="AC6" t="n">
-        <v>1246.59415255744</v>
+        <v>1608.017762111818</v>
       </c>
       <c r="AD6" t="n">
-        <v>1007217.917630533</v>
+        <v>1299239.450581769</v>
       </c>
       <c r="AE6" t="n">
-        <v>1378119.990220535</v>
+        <v>1777676.734685207</v>
       </c>
       <c r="AF6" t="n">
         <v>2.845849101990909e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>58</v>
+        <v>57.55208333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1246594.15255744</v>
+        <v>1608017.762111817</v>
       </c>
     </row>
     <row r="7">
@@ -52758,28 +52758,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>985.4401568553729</v>
+        <v>1267.75952643243</v>
       </c>
       <c r="AB7" t="n">
-        <v>1348.322697160962</v>
+        <v>1734.604513667844</v>
       </c>
       <c r="AC7" t="n">
-        <v>1219.64067132671</v>
+        <v>1569.056293416109</v>
       </c>
       <c r="AD7" t="n">
-        <v>985440.1568553729</v>
+        <v>1267759.52643243</v>
       </c>
       <c r="AE7" t="n">
-        <v>1348322.697160963</v>
+        <v>1734604.513667844</v>
       </c>
       <c r="AF7" t="n">
         <v>2.889932281831269e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>57</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1219640.67132671</v>
+        <v>1569056.293416109</v>
       </c>
     </row>
     <row r="8">
@@ -52864,28 +52864,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>966.0422251051974</v>
+        <v>1248.327429263474</v>
       </c>
       <c r="AB8" t="n">
-        <v>1321.781591164021</v>
+        <v>1708.016661037655</v>
       </c>
       <c r="AC8" t="n">
-        <v>1195.632611235441</v>
+        <v>1545.00594812466</v>
       </c>
       <c r="AD8" t="n">
-        <v>966042.2251051974</v>
+        <v>1248327.429263473</v>
       </c>
       <c r="AE8" t="n">
-        <v>1321781.591164021</v>
+        <v>1708016.661037655</v>
       </c>
       <c r="AF8" t="n">
         <v>2.927035100812455e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>56</v>
+        <v>55.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1195632.611235441</v>
+        <v>1545005.94812466</v>
       </c>
     </row>
     <row r="9">
@@ -52970,28 +52970,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>958.7556663570294</v>
+        <v>1240.93938528882</v>
       </c>
       <c r="AB9" t="n">
-        <v>1311.811800024493</v>
+        <v>1697.908013334038</v>
       </c>
       <c r="AC9" t="n">
-        <v>1186.61432296958</v>
+        <v>1535.8620555703</v>
       </c>
       <c r="AD9" t="n">
-        <v>958755.6663570295</v>
+        <v>1240939.38528882</v>
       </c>
       <c r="AE9" t="n">
-        <v>1311811.800024493</v>
+        <v>1697908.013334038</v>
       </c>
       <c r="AF9" t="n">
         <v>2.951560693020359e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>56</v>
+        <v>55.49479166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1186614.32296958</v>
+        <v>1535862.0555703</v>
       </c>
     </row>
     <row r="10">
@@ -53076,28 +53076,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>953.8452259392202</v>
+        <v>1226.360946915613</v>
       </c>
       <c r="AB10" t="n">
-        <v>1305.093118811504</v>
+        <v>1677.961150796506</v>
       </c>
       <c r="AC10" t="n">
-        <v>1180.53686326183</v>
+        <v>1517.818893597752</v>
       </c>
       <c r="AD10" t="n">
-        <v>953845.2259392202</v>
+        <v>1226360.946915613</v>
       </c>
       <c r="AE10" t="n">
-        <v>1305093.118811504</v>
+        <v>1677961.150796506</v>
       </c>
       <c r="AF10" t="n">
         <v>2.965018325667772e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>56</v>
+        <v>55.234375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1180536.86326183</v>
+        <v>1517818.893597752</v>
       </c>
     </row>
     <row r="11">
@@ -53182,28 +53182,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>938.5169402932128</v>
+        <v>1220.767979032708</v>
       </c>
       <c r="AB11" t="n">
-        <v>1284.120282154401</v>
+        <v>1670.308605394787</v>
       </c>
       <c r="AC11" t="n">
-        <v>1161.56564469972</v>
+        <v>1510.896696388759</v>
       </c>
       <c r="AD11" t="n">
-        <v>938516.9402932128</v>
+        <v>1220767.979032708</v>
       </c>
       <c r="AE11" t="n">
-        <v>1284120.282154401</v>
+        <v>1670308.605394787</v>
       </c>
       <c r="AF11" t="n">
         <v>2.980551200732777e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>54.94791666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1161565.64469972</v>
+        <v>1510896.696388759</v>
       </c>
     </row>
     <row r="12">
@@ -53288,28 +53288,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>934.2258804757156</v>
+        <v>1206.808921259813</v>
       </c>
       <c r="AB12" t="n">
-        <v>1278.249064803903</v>
+        <v>1651.209206719745</v>
       </c>
       <c r="AC12" t="n">
-        <v>1156.254768092848</v>
+        <v>1493.620117517089</v>
       </c>
       <c r="AD12" t="n">
-        <v>934225.8804757156</v>
+        <v>1206808.921259813</v>
       </c>
       <c r="AE12" t="n">
-        <v>1278249.064803903</v>
+        <v>1651209.206719745</v>
       </c>
       <c r="AF12" t="n">
         <v>2.994826353120454e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>55</v>
+        <v>54.6875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1156254.768092848</v>
+        <v>1493620.117517089</v>
       </c>
     </row>
     <row r="13">
@@ -53394,28 +53394,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>929.7304566732794</v>
+        <v>1202.313497457376</v>
       </c>
       <c r="AB13" t="n">
-        <v>1272.098227633308</v>
+        <v>1645.058369549151</v>
       </c>
       <c r="AC13" t="n">
-        <v>1150.690958189061</v>
+        <v>1488.056307613302</v>
       </c>
       <c r="AD13" t="n">
-        <v>929730.4566732794</v>
+        <v>1202313.497457376</v>
       </c>
       <c r="AE13" t="n">
-        <v>1272098.227633308</v>
+        <v>1645058.369549151</v>
       </c>
       <c r="AF13" t="n">
         <v>3.00438504546815e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>55</v>
+        <v>54.50520833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1150690.958189061</v>
+        <v>1488056.307613302</v>
       </c>
     </row>
     <row r="14">
@@ -53500,28 +53500,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>924.1352257170679</v>
+        <v>1196.61678127468</v>
       </c>
       <c r="AB14" t="n">
-        <v>1264.442585794852</v>
+        <v>1637.263871146605</v>
       </c>
       <c r="AC14" t="n">
-        <v>1143.765960062906</v>
+        <v>1481.005705198648</v>
       </c>
       <c r="AD14" t="n">
-        <v>924135.225717068</v>
+        <v>1196616.78127468</v>
       </c>
       <c r="AE14" t="n">
-        <v>1264442.585794852</v>
+        <v>1637263.871146605</v>
       </c>
       <c r="AF14" t="n">
         <v>3.021552960013683e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>55</v>
+        <v>54.19270833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1143765.960062906</v>
+        <v>1481005.705198647</v>
       </c>
     </row>
     <row r="15">
@@ -53606,28 +53606,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>919.8514159780559</v>
+        <v>1182.664973580269</v>
       </c>
       <c r="AB15" t="n">
-        <v>1258.581288321588</v>
+        <v>1618.174392348798</v>
       </c>
       <c r="AC15" t="n">
-        <v>1138.464056594107</v>
+        <v>1463.738099465051</v>
       </c>
       <c r="AD15" t="n">
-        <v>919851.4159780559</v>
+        <v>1182664.973580269</v>
       </c>
       <c r="AE15" t="n">
-        <v>1258581.288321588</v>
+        <v>1618174.392348798</v>
       </c>
       <c r="AF15" t="n">
         <v>3.030231246487248e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>55</v>
+        <v>54.03645833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1138464.056594107</v>
+        <v>1463738.099465051</v>
       </c>
     </row>
     <row r="16">
@@ -53712,28 +53712,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>918.6212340794407</v>
+        <v>1181.434791681654</v>
       </c>
       <c r="AB16" t="n">
-        <v>1256.898099176107</v>
+        <v>1616.491203203317</v>
       </c>
       <c r="AC16" t="n">
-        <v>1136.941508658301</v>
+        <v>1462.215551529245</v>
       </c>
       <c r="AD16" t="n">
-        <v>918621.2340794407</v>
+        <v>1181434.791681654</v>
       </c>
       <c r="AE16" t="n">
-        <v>1256898.099176107</v>
+        <v>1616491.203203317</v>
       </c>
       <c r="AF16" t="n">
         <v>3.027652914998725e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>54.08854166666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>1136941.508658301</v>
+        <v>1462215.551529245</v>
       </c>
     </row>
     <row r="17">
@@ -53818,28 +53818,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>904.8574630418749</v>
+        <v>1177.406338407191</v>
       </c>
       <c r="AB17" t="n">
-        <v>1238.065900427787</v>
+        <v>1610.979295710381</v>
       </c>
       <c r="AC17" t="n">
-        <v>1119.906628527363</v>
+        <v>1457.229692751424</v>
       </c>
       <c r="AD17" t="n">
-        <v>904857.4630418749</v>
+        <v>1177406.338407191</v>
       </c>
       <c r="AE17" t="n">
-        <v>1238065.900427787</v>
+        <v>1610979.295710381</v>
       </c>
       <c r="AF17" t="n">
         <v>3.037966240952818e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>54</v>
+        <v>53.90625</v>
       </c>
       <c r="AH17" t="n">
-        <v>1119906.628527363</v>
+        <v>1457229.692751424</v>
       </c>
     </row>
     <row r="18">
@@ -53924,28 +53924,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>900.9240424555317</v>
+        <v>1173.472917820848</v>
       </c>
       <c r="AB18" t="n">
-        <v>1232.684020851283</v>
+        <v>1605.597416133877</v>
       </c>
       <c r="AC18" t="n">
-        <v>1115.038387984125</v>
+        <v>1452.361452208186</v>
       </c>
       <c r="AD18" t="n">
-        <v>900924.0424555317</v>
+        <v>1173472.917820848</v>
       </c>
       <c r="AE18" t="n">
-        <v>1232684.020851283</v>
+        <v>1605597.416133877</v>
       </c>
       <c r="AF18" t="n">
         <v>3.046204324489319e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>54</v>
+        <v>53.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>1115038.387984125</v>
+        <v>1452361.452208186</v>
       </c>
     </row>
     <row r="19">
@@ -54030,28 +54030,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>898.546468900223</v>
+        <v>1171.095344265539</v>
       </c>
       <c r="AB19" t="n">
-        <v>1229.430919821767</v>
+        <v>1602.344315104362</v>
       </c>
       <c r="AC19" t="n">
-        <v>1112.09575835111</v>
+        <v>1449.418822575172</v>
       </c>
       <c r="AD19" t="n">
-        <v>898546.468900223</v>
+        <v>1171095.344265539</v>
       </c>
       <c r="AE19" t="n">
-        <v>1229430.919821767</v>
+        <v>1602344.315104362</v>
       </c>
       <c r="AF19" t="n">
         <v>3.045889893819986e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>54</v>
+        <v>53.77604166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1112095.75835111</v>
+        <v>1449418.822575171</v>
       </c>
     </row>
     <row r="20">
@@ -54136,28 +54136,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>895.1371078725814</v>
+        <v>1167.685983237898</v>
       </c>
       <c r="AB20" t="n">
-        <v>1224.766081653354</v>
+        <v>1597.679476935949</v>
       </c>
       <c r="AC20" t="n">
-        <v>1107.87612579035</v>
+        <v>1445.199190014411</v>
       </c>
       <c r="AD20" t="n">
-        <v>895137.1078725813</v>
+        <v>1167685.983237898</v>
       </c>
       <c r="AE20" t="n">
-        <v>1224766.081653354</v>
+        <v>1597679.476935949</v>
       </c>
       <c r="AF20" t="n">
         <v>3.053436229883957e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>1107876.125790349</v>
+        <v>1445199.190014411</v>
       </c>
     </row>
     <row r="21">
@@ -54242,28 +54242,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>892.7235600392044</v>
+        <v>1165.272435404521</v>
       </c>
       <c r="AB21" t="n">
-        <v>1221.463759029513</v>
+        <v>1594.377154312107</v>
       </c>
       <c r="AC21" t="n">
-        <v>1104.888972202888</v>
+        <v>1442.212036426949</v>
       </c>
       <c r="AD21" t="n">
-        <v>892723.5600392043</v>
+        <v>1165272.43540452</v>
       </c>
       <c r="AE21" t="n">
-        <v>1221463.759029513</v>
+        <v>1594377.154312107</v>
       </c>
       <c r="AF21" t="n">
         <v>3.052870254679159e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>1104888.972202888</v>
+        <v>1442212.036426949</v>
       </c>
     </row>
     <row r="22">
@@ -54348,28 +54348,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>889.2426153349122</v>
+        <v>1161.690005473743</v>
       </c>
       <c r="AB22" t="n">
-        <v>1216.700976916658</v>
+        <v>1589.475515635163</v>
       </c>
       <c r="AC22" t="n">
-        <v>1100.580743330278</v>
+        <v>1437.77820326584</v>
       </c>
       <c r="AD22" t="n">
-        <v>889242.6153349122</v>
+        <v>1161690.005473743</v>
       </c>
       <c r="AE22" t="n">
-        <v>1216700.976916658</v>
+        <v>1589475.515635164</v>
       </c>
       <c r="AF22" t="n">
         <v>3.062303174759122e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>54</v>
+        <v>53.48958333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>1100580.743330278</v>
+        <v>1437778.20326584</v>
       </c>
     </row>
     <row r="23">
@@ -54454,28 +54454,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>887.5275172326893</v>
+        <v>1159.97490737152</v>
       </c>
       <c r="AB23" t="n">
-        <v>1214.354304028408</v>
+        <v>1587.128842746914</v>
       </c>
       <c r="AC23" t="n">
-        <v>1098.458033608907</v>
+        <v>1435.655493544469</v>
       </c>
       <c r="AD23" t="n">
-        <v>887527.5172326893</v>
+        <v>1159974.90737152</v>
       </c>
       <c r="AE23" t="n">
-        <v>1214354.304028408</v>
+        <v>1587128.842746914</v>
       </c>
       <c r="AF23" t="n">
         <v>3.061548541152725e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>54</v>
+        <v>53.48958333333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>1098458.033608907</v>
+        <v>1435655.493544469</v>
       </c>
     </row>
     <row r="24">
@@ -54560,28 +54560,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>888.7570971360558</v>
+        <v>1161.204487274887</v>
       </c>
       <c r="AB24" t="n">
-        <v>1216.036669497432</v>
+        <v>1588.811208215937</v>
       </c>
       <c r="AC24" t="n">
-        <v>1099.979836478781</v>
+        <v>1437.177296414343</v>
       </c>
       <c r="AD24" t="n">
-        <v>888757.0971360558</v>
+        <v>1161204.487274887</v>
       </c>
       <c r="AE24" t="n">
-        <v>1216036.669497432</v>
+        <v>1588811.208215937</v>
       </c>
       <c r="AF24" t="n">
         <v>3.061674313420458e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>54</v>
+        <v>53.48958333333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>1099979.836478781</v>
+        <v>1437177.296414343</v>
       </c>
     </row>
   </sheetData>
@@ -54857,28 +54857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>636.4014859801339</v>
+        <v>889.1307427702889</v>
       </c>
       <c r="AB2" t="n">
-        <v>870.7525891700732</v>
+        <v>1216.547907938271</v>
       </c>
       <c r="AC2" t="n">
-        <v>787.6491841686152</v>
+        <v>1100.442283040355</v>
       </c>
       <c r="AD2" t="n">
-        <v>636401.4859801339</v>
+        <v>889130.7427702888</v>
       </c>
       <c r="AE2" t="n">
-        <v>870752.5891700732</v>
+        <v>1216547.907938271</v>
       </c>
       <c r="AF2" t="n">
         <v>7.184618486337916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>787649.1841686151</v>
+        <v>1100442.283040354</v>
       </c>
     </row>
   </sheetData>
@@ -55154,28 +55154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1026.118998984046</v>
+        <v>1347.116335403978</v>
       </c>
       <c r="AB2" t="n">
-        <v>1403.981283585269</v>
+        <v>1843.184000678041</v>
       </c>
       <c r="AC2" t="n">
-        <v>1269.987280379998</v>
+        <v>1667.273106578321</v>
       </c>
       <c r="AD2" t="n">
-        <v>1026118.998984046</v>
+        <v>1347116.335403978</v>
       </c>
       <c r="AE2" t="n">
-        <v>1403981.283585269</v>
+        <v>1843184.000678041</v>
       </c>
       <c r="AF2" t="n">
         <v>3.305199668662316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1269987.280379998</v>
+        <v>1667273.106578321</v>
       </c>
     </row>
     <row r="3">
@@ -55260,28 +55260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.1228934713225</v>
+        <v>1156.347798449197</v>
       </c>
       <c r="AB3" t="n">
-        <v>1194.645262310957</v>
+        <v>1582.166072302639</v>
       </c>
       <c r="AC3" t="n">
-        <v>1080.629995171155</v>
+        <v>1431.166362946103</v>
       </c>
       <c r="AD3" t="n">
-        <v>873122.8934713225</v>
+        <v>1156347.798449197</v>
       </c>
       <c r="AE3" t="n">
-        <v>1194645.262310957</v>
+        <v>1582166.072302639</v>
       </c>
       <c r="AF3" t="n">
         <v>3.748177434466576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.78645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1080629.995171155</v>
+        <v>1431166.362946103</v>
       </c>
     </row>
     <row r="4">
@@ -55366,28 +55366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>829.2706689585712</v>
+        <v>1102.950980849446</v>
       </c>
       <c r="AB4" t="n">
-        <v>1134.644714109004</v>
+        <v>1509.106190761324</v>
       </c>
       <c r="AC4" t="n">
-        <v>1026.355815078298</v>
+        <v>1365.079213958904</v>
       </c>
       <c r="AD4" t="n">
-        <v>829270.6689585712</v>
+        <v>1102950.980849446</v>
       </c>
       <c r="AE4" t="n">
-        <v>1134644.714109004</v>
+        <v>1509106.190761324</v>
       </c>
       <c r="AF4" t="n">
         <v>3.905872861422054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.44270833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1026355.815078298</v>
+        <v>1365079.213958904</v>
       </c>
     </row>
     <row r="5">
@@ -55472,28 +55472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>804.9738492436699</v>
+        <v>1069.245218692811</v>
       </c>
       <c r="AB5" t="n">
-        <v>1101.400733475041</v>
+        <v>1462.988479985337</v>
       </c>
       <c r="AC5" t="n">
-        <v>996.2845932978205</v>
+        <v>1323.362912772763</v>
       </c>
       <c r="AD5" t="n">
-        <v>804973.8492436699</v>
+        <v>1069245.218692811</v>
       </c>
       <c r="AE5" t="n">
-        <v>1101400.733475041</v>
+        <v>1462988.479985337</v>
       </c>
       <c r="AF5" t="n">
         <v>3.993204189641069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>55</v>
+        <v>54.24479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>996284.5932978205</v>
+        <v>1323362.912772763</v>
       </c>
     </row>
     <row r="6">
@@ -55578,28 +55578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>785.88981404017</v>
+        <v>1050.228503297016</v>
       </c>
       <c r="AB6" t="n">
-        <v>1075.2891145814</v>
+        <v>1436.968971022537</v>
       </c>
       <c r="AC6" t="n">
-        <v>972.6650306635012</v>
+        <v>1299.826669226763</v>
       </c>
       <c r="AD6" t="n">
-        <v>785889.8140401701</v>
+        <v>1050228.503297016</v>
       </c>
       <c r="AE6" t="n">
-        <v>1075289.1145814</v>
+        <v>1436968.971022537</v>
       </c>
       <c r="AF6" t="n">
         <v>4.037701580685996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>54</v>
+        <v>53.64583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>972665.0306635011</v>
+        <v>1299826.669226763</v>
       </c>
     </row>
     <row r="7">
@@ -55684,28 +55684,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>777.0133291180863</v>
+        <v>1031.875756125493</v>
       </c>
       <c r="AB7" t="n">
-        <v>1063.143916308127</v>
+        <v>1411.857932676398</v>
       </c>
       <c r="AC7" t="n">
-        <v>961.6789530675372</v>
+        <v>1277.112193136816</v>
       </c>
       <c r="AD7" t="n">
-        <v>777013.3291180863</v>
+        <v>1031875.756125493</v>
       </c>
       <c r="AE7" t="n">
-        <v>1063143.916308128</v>
+        <v>1411857.932676398</v>
       </c>
       <c r="AF7" t="n">
         <v>4.070222103860886e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>54</v>
+        <v>53.203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>961678.9530675373</v>
+        <v>1277112.193136816</v>
       </c>
     </row>
     <row r="8">
@@ -55790,28 +55790,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>759.975607716504</v>
+        <v>1024.280131554568</v>
       </c>
       <c r="AB8" t="n">
-        <v>1039.832154235263</v>
+        <v>1401.465264043153</v>
       </c>
       <c r="AC8" t="n">
-        <v>940.5920328486438</v>
+        <v>1267.711386211725</v>
       </c>
       <c r="AD8" t="n">
-        <v>759975.607716504</v>
+        <v>1024280.131554568</v>
       </c>
       <c r="AE8" t="n">
-        <v>1039832.154235263</v>
+        <v>1401465.264043153</v>
       </c>
       <c r="AF8" t="n">
         <v>4.09159748610116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>53</v>
+        <v>52.94270833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>940592.0328486438</v>
+        <v>1267711.386211725</v>
       </c>
     </row>
     <row r="9">
@@ -55896,28 +55896,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>756.4420284883238</v>
+        <v>1011.371775303435</v>
       </c>
       <c r="AB9" t="n">
-        <v>1034.997355244754</v>
+        <v>1383.803481543866</v>
       </c>
       <c r="AC9" t="n">
-        <v>936.2186602881055</v>
+        <v>1251.735219445703</v>
       </c>
       <c r="AD9" t="n">
-        <v>756442.0284883238</v>
+        <v>1011371.775303436</v>
       </c>
       <c r="AE9" t="n">
-        <v>1034997.355244754</v>
+        <v>1383803.481543866</v>
       </c>
       <c r="AF9" t="n">
         <v>4.109562787906214e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>53</v>
+        <v>52.70833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>936218.6602881055</v>
+        <v>1251735.219445704</v>
       </c>
     </row>
     <row r="10">
@@ -56002,28 +56002,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>757.9949856992957</v>
+        <v>1012.924732514407</v>
       </c>
       <c r="AB10" t="n">
-        <v>1037.122179812442</v>
+        <v>1385.928306111555</v>
       </c>
       <c r="AC10" t="n">
-        <v>938.1406945812639</v>
+        <v>1253.657253738862</v>
       </c>
       <c r="AD10" t="n">
-        <v>757994.9856992958</v>
+        <v>1012924.732514407</v>
       </c>
       <c r="AE10" t="n">
-        <v>1037122.179812443</v>
+        <v>1385928.306111555</v>
       </c>
       <c r="AF10" t="n">
         <v>4.109562787906214e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>53</v>
+        <v>52.70833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>938140.6945812639</v>
+        <v>1253657.253738862</v>
       </c>
     </row>
   </sheetData>
@@ -56299,28 +56299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1193.300687356008</v>
+        <v>1546.731265217187</v>
       </c>
       <c r="AB2" t="n">
-        <v>1632.726645151339</v>
+        <v>2116.305954037653</v>
       </c>
       <c r="AC2" t="n">
-        <v>1476.901505684333</v>
+        <v>1914.32868403836</v>
       </c>
       <c r="AD2" t="n">
-        <v>1193300.687356008</v>
+        <v>1546731.265217187</v>
       </c>
       <c r="AE2" t="n">
-        <v>1632726.645151339</v>
+        <v>2116305.954037652</v>
       </c>
       <c r="AF2" t="n">
         <v>2.721635759002583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1476901.505684333</v>
+        <v>1914328.68403836</v>
       </c>
     </row>
     <row r="3">
@@ -56405,28 +56405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>980.9446684871785</v>
+        <v>1277.0124042647</v>
       </c>
       <c r="AB3" t="n">
-        <v>1342.171771648649</v>
+        <v>1747.264709326116</v>
       </c>
       <c r="AC3" t="n">
-        <v>1214.076781512414</v>
+        <v>1580.508217769453</v>
       </c>
       <c r="AD3" t="n">
-        <v>980944.6684871785</v>
+        <v>1277012.4042647</v>
       </c>
       <c r="AE3" t="n">
-        <v>1342171.771648649</v>
+        <v>1747264.709326116</v>
       </c>
       <c r="AF3" t="n">
         <v>3.197472101531402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1214076.781512414</v>
+        <v>1580508.217769453</v>
       </c>
     </row>
     <row r="4">
@@ -56511,28 +56511,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>916.8127583790794</v>
+        <v>1193.804763677138</v>
       </c>
       <c r="AB4" t="n">
-        <v>1254.423662938556</v>
+        <v>1633.416344612187</v>
       </c>
       <c r="AC4" t="n">
-        <v>1134.703229142368</v>
+        <v>1477.525381196637</v>
       </c>
       <c r="AD4" t="n">
-        <v>916812.7583790794</v>
+        <v>1193804.763677138</v>
       </c>
       <c r="AE4" t="n">
-        <v>1254423.662938556</v>
+        <v>1633416.344612187</v>
       </c>
       <c r="AF4" t="n">
         <v>3.376919799266396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>58</v>
+        <v>57.109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1134703.229142368</v>
+        <v>1477525.381196637</v>
       </c>
     </row>
     <row r="5">
@@ -56617,28 +56617,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>881.317305931891</v>
+        <v>1158.342465618873</v>
       </c>
       <c r="AB5" t="n">
-        <v>1205.85721895147</v>
+        <v>1584.895263922695</v>
       </c>
       <c r="AC5" t="n">
-        <v>1090.771898405977</v>
+        <v>1433.635084348386</v>
       </c>
       <c r="AD5" t="n">
-        <v>881317.3059318911</v>
+        <v>1158342.465618873</v>
       </c>
       <c r="AE5" t="n">
-        <v>1205857.21895147</v>
+        <v>1584895.263922695</v>
       </c>
       <c r="AF5" t="n">
         <v>3.460089326528631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>56</v>
+        <v>55.72916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1090771.898405977</v>
+        <v>1433635.084348386</v>
       </c>
     </row>
     <row r="6">
@@ -56723,28 +56723,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>860.2503850862436</v>
+        <v>1137.241379354445</v>
       </c>
       <c r="AB6" t="n">
-        <v>1177.032528443502</v>
+        <v>1556.023826781478</v>
       </c>
       <c r="AC6" t="n">
-        <v>1064.698195904382</v>
+        <v>1407.519096646611</v>
       </c>
       <c r="AD6" t="n">
-        <v>860250.3850862436</v>
+        <v>1137241.379354445</v>
       </c>
       <c r="AE6" t="n">
-        <v>1177032.528443502</v>
+        <v>1556023.826781478</v>
       </c>
       <c r="AF6" t="n">
         <v>3.512523899370717e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>55</v>
+        <v>54.89583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1064698.195904382</v>
+        <v>1407519.096646611</v>
       </c>
     </row>
     <row r="7">
@@ -56829,28 +56829,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>851.601697350441</v>
+        <v>1119.004589280596</v>
       </c>
       <c r="AB7" t="n">
-        <v>1165.199012330202</v>
+        <v>1531.071446052043</v>
       </c>
       <c r="AC7" t="n">
-        <v>1053.994053960492</v>
+        <v>1384.948136113106</v>
       </c>
       <c r="AD7" t="n">
-        <v>851601.697350441</v>
+        <v>1119004.589280596</v>
       </c>
       <c r="AE7" t="n">
-        <v>1165199.012330202</v>
+        <v>1531071.446052043</v>
       </c>
       <c r="AF7" t="n">
         <v>3.550590806773023e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>54.32291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1053994.053960492</v>
+        <v>1384948.136113106</v>
       </c>
     </row>
     <row r="8">
@@ -56935,28 +56935,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>833.845728069821</v>
+        <v>1101.315939807681</v>
       </c>
       <c r="AB8" t="n">
-        <v>1140.904511822379</v>
+        <v>1506.869055475061</v>
       </c>
       <c r="AC8" t="n">
-        <v>1032.018186483589</v>
+        <v>1363.055587724523</v>
       </c>
       <c r="AD8" t="n">
-        <v>833845.728069821</v>
+        <v>1101315.939807681</v>
       </c>
       <c r="AE8" t="n">
-        <v>1140904.511822379</v>
+        <v>1506869.055475061</v>
       </c>
       <c r="AF8" t="n">
         <v>3.583769745520558e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>54</v>
+        <v>53.828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1032018.186483589</v>
+        <v>1363055.587724523</v>
       </c>
     </row>
     <row r="9">
@@ -57041,28 +57041,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>828.2214293019324</v>
+        <v>1095.691641039792</v>
       </c>
       <c r="AB9" t="n">
-        <v>1133.209098121604</v>
+        <v>1499.173641774286</v>
       </c>
       <c r="AC9" t="n">
-        <v>1025.057212265836</v>
+        <v>1356.094613506769</v>
       </c>
       <c r="AD9" t="n">
-        <v>828221.4293019325</v>
+        <v>1095691.641039792</v>
       </c>
       <c r="AE9" t="n">
-        <v>1133209.098121604</v>
+        <v>1499173.641774286</v>
       </c>
       <c r="AF9" t="n">
         <v>3.598137410960338e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>54</v>
+        <v>53.59375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1025057.212265836</v>
+        <v>1356094.613506769</v>
       </c>
     </row>
     <row r="10">
@@ -57147,28 +57147,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>822.2090525868805</v>
+        <v>1080.091161986694</v>
       </c>
       <c r="AB10" t="n">
-        <v>1124.982699052729</v>
+        <v>1477.828378089276</v>
       </c>
       <c r="AC10" t="n">
-        <v>1017.615929178271</v>
+        <v>1336.78651182959</v>
       </c>
       <c r="AD10" t="n">
-        <v>822209.0525868805</v>
+        <v>1080091.161986694</v>
       </c>
       <c r="AE10" t="n">
-        <v>1124982.699052729</v>
+        <v>1477828.378089276</v>
       </c>
       <c r="AF10" t="n">
         <v>3.61457876007184e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>54</v>
+        <v>53.359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1017615.929178271</v>
+        <v>1336786.51182959</v>
       </c>
     </row>
     <row r="11">
@@ -57253,28 +57253,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>816.5038498789809</v>
+        <v>1074.385959278795</v>
       </c>
       <c r="AB11" t="n">
-        <v>1117.176589012001</v>
+        <v>1470.022268048548</v>
       </c>
       <c r="AC11" t="n">
-        <v>1010.554823323886</v>
+        <v>1329.725405975205</v>
       </c>
       <c r="AD11" t="n">
-        <v>816503.8498789809</v>
+        <v>1074385.959278795</v>
       </c>
       <c r="AE11" t="n">
-        <v>1117176.589012001</v>
+        <v>1470022.268048548</v>
       </c>
       <c r="AF11" t="n">
         <v>3.630279507872012e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1010554.823323886</v>
+        <v>1329725.405975205</v>
       </c>
     </row>
     <row r="12">
@@ -57359,28 +57359,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>801.4526506002045</v>
+        <v>1068.888696919283</v>
       </c>
       <c r="AB12" t="n">
-        <v>1096.582874146731</v>
+        <v>1462.500671166166</v>
       </c>
       <c r="AC12" t="n">
-        <v>991.9265437018964</v>
+        <v>1322.92165974265</v>
       </c>
       <c r="AD12" t="n">
-        <v>801452.6506002045</v>
+        <v>1068888.696919283</v>
       </c>
       <c r="AE12" t="n">
-        <v>1096582.874146731</v>
+        <v>1462500.671166166</v>
       </c>
       <c r="AF12" t="n">
         <v>3.638648302690029e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>53</v>
+        <v>52.99479166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>991926.5437018964</v>
+        <v>1322921.65974265</v>
       </c>
     </row>
     <row r="13">
@@ -57465,28 +57465,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>799.1677442135999</v>
+        <v>1066.603790532679</v>
       </c>
       <c r="AB13" t="n">
-        <v>1093.456564425623</v>
+        <v>1459.374361445058</v>
       </c>
       <c r="AC13" t="n">
-        <v>989.098604592768</v>
+        <v>1320.093720633522</v>
       </c>
       <c r="AD13" t="n">
-        <v>799167.7442135999</v>
+        <v>1066603.790532679</v>
       </c>
       <c r="AE13" t="n">
-        <v>1093456.564425623</v>
+        <v>1459374.361445058</v>
       </c>
       <c r="AF13" t="n">
         <v>3.645017473967458e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>53</v>
+        <v>52.91666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>989098.604592768</v>
+        <v>1320093.720633522</v>
       </c>
     </row>
     <row r="14">
@@ -57571,28 +57571,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>800.6949195229516</v>
+        <v>1068.13096584203</v>
       </c>
       <c r="AB14" t="n">
-        <v>1095.546113058098</v>
+        <v>1461.463910077532</v>
       </c>
       <c r="AC14" t="n">
-        <v>990.9887296364589</v>
+        <v>1321.983845677212</v>
       </c>
       <c r="AD14" t="n">
-        <v>800694.9195229516</v>
+        <v>1068130.96584203</v>
       </c>
       <c r="AE14" t="n">
-        <v>1095546.113058098</v>
+        <v>1461463.910077532</v>
       </c>
       <c r="AF14" t="n">
         <v>3.644721233442927e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>53</v>
+        <v>52.91666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>990988.7296364589</v>
+        <v>1321983.845677212</v>
       </c>
     </row>
   </sheetData>
